--- a/file.xlsx
+++ b/file.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H95"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,10 +438,10 @@
         <v>1354</v>
       </c>
       <c r="F2">
-        <v>67166</v>
+        <v>59166</v>
       </c>
       <c r="G2">
-        <v>681479</v>
+        <v>689479</v>
       </c>
       <c r="H2">
         <v>150000</v>
@@ -455,19 +455,19 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>17606</v>
+        <v>17670</v>
       </c>
       <c r="D3">
-        <v>13634</v>
+        <v>13684</v>
       </c>
       <c r="E3">
-        <v>3971</v>
+        <v>3986</v>
       </c>
       <c r="F3">
-        <v>57915</v>
+        <v>49864</v>
       </c>
       <c r="G3">
-        <v>2119592</v>
+        <v>2135629</v>
       </c>
       <c r="H3">
         <v>150000</v>
@@ -481,19 +481,19 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>17137</v>
+        <v>17267</v>
       </c>
       <c r="D4">
-        <v>13247</v>
+        <v>13348</v>
       </c>
       <c r="E4">
-        <v>3890</v>
+        <v>3919</v>
       </c>
       <c r="F4">
-        <v>58290</v>
+        <v>50186</v>
       </c>
       <c r="G4">
-        <v>2057412</v>
+        <v>2081524</v>
       </c>
       <c r="H4">
         <v>150000</v>
@@ -507,19 +507,19 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>16665</v>
+        <v>16861</v>
       </c>
       <c r="D5">
-        <v>12859</v>
+        <v>13010</v>
       </c>
       <c r="E5">
-        <v>3806</v>
+        <v>3851</v>
       </c>
       <c r="F5">
-        <v>58668</v>
+        <v>50512</v>
       </c>
       <c r="G5">
-        <v>1994938</v>
+        <v>2027161</v>
       </c>
       <c r="H5">
         <v>150000</v>
@@ -533,19 +533,19 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>16189</v>
+        <v>16451</v>
       </c>
       <c r="D6">
-        <v>12468</v>
+        <v>12670</v>
       </c>
       <c r="E6">
-        <v>3721</v>
+        <v>3781</v>
       </c>
       <c r="F6">
-        <v>59049</v>
+        <v>50840</v>
       </c>
       <c r="G6">
-        <v>1932169</v>
+        <v>1972541</v>
       </c>
       <c r="H6">
         <v>150000</v>
@@ -559,19 +559,19 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>27904</v>
+        <v>28233</v>
       </c>
       <c r="D7">
-        <v>21451</v>
+        <v>21703</v>
       </c>
       <c r="E7">
-        <v>6453</v>
+        <v>6529</v>
       </c>
       <c r="F7">
-        <v>49676</v>
+        <v>41414</v>
       </c>
       <c r="G7">
-        <v>3376039</v>
+        <v>3424597</v>
       </c>
       <c r="H7">
         <v>150000</v>
@@ -585,19 +585,19 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>27500</v>
+        <v>27895</v>
       </c>
       <c r="D8">
-        <v>21100</v>
+        <v>21404</v>
       </c>
       <c r="E8">
-        <v>6400</v>
+        <v>6492</v>
       </c>
       <c r="F8">
-        <v>50000</v>
+        <v>41684</v>
       </c>
       <c r="G8">
-        <v>3319639</v>
+        <v>3376422</v>
       </c>
       <c r="H8">
         <v>150000</v>
@@ -611,19 +611,19 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>27092</v>
+        <v>27555</v>
       </c>
       <c r="D9">
-        <v>20748</v>
+        <v>21103</v>
       </c>
       <c r="E9">
-        <v>6344</v>
+        <v>6453</v>
       </c>
       <c r="F9">
-        <v>50327</v>
+        <v>41956</v>
       </c>
       <c r="G9">
-        <v>3262968</v>
+        <v>3328014</v>
       </c>
       <c r="H9">
         <v>150000</v>
@@ -637,19 +637,19 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>26680</v>
+        <v>27212</v>
       </c>
       <c r="D10">
-        <v>20394</v>
+        <v>20800</v>
       </c>
       <c r="E10">
-        <v>6287</v>
+        <v>6412</v>
       </c>
       <c r="F10">
-        <v>50656</v>
+        <v>42230</v>
       </c>
       <c r="G10">
-        <v>3206026</v>
+        <v>3279371</v>
       </c>
       <c r="H10">
         <v>150000</v>
@@ -663,19 +663,19 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>26265</v>
+        <v>26866</v>
       </c>
       <c r="D11">
-        <v>20038</v>
+        <v>20496</v>
       </c>
       <c r="E11">
-        <v>6228</v>
+        <v>6370</v>
       </c>
       <c r="F11">
-        <v>50988</v>
+        <v>42507</v>
       </c>
       <c r="G11">
-        <v>3148810</v>
+        <v>3230494</v>
       </c>
       <c r="H11">
         <v>150000</v>
@@ -689,19 +689,19 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>25847</v>
+        <v>26517</v>
       </c>
       <c r="D12">
-        <v>19680</v>
+        <v>20191</v>
       </c>
       <c r="E12">
-        <v>6167</v>
+        <v>6327</v>
       </c>
       <c r="F12">
-        <v>51323</v>
+        <v>42786</v>
       </c>
       <c r="G12">
-        <v>3091321</v>
+        <v>3181381</v>
       </c>
       <c r="H12">
         <v>150000</v>
@@ -715,19 +715,19 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>35294</v>
+        <v>36035</v>
       </c>
       <c r="D13">
-        <v>26821</v>
+        <v>27384</v>
       </c>
       <c r="E13">
-        <v>8473</v>
+        <v>8651</v>
       </c>
       <c r="F13">
-        <v>43765</v>
+        <v>35172</v>
       </c>
       <c r="G13">
-        <v>4239083</v>
+        <v>4337558</v>
       </c>
       <c r="H13">
         <v>150000</v>
@@ -741,19 +741,19 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>34933</v>
+        <v>35745</v>
       </c>
       <c r="D14">
-        <v>26494</v>
+        <v>27110</v>
       </c>
       <c r="E14">
-        <v>8439</v>
+        <v>8635</v>
       </c>
       <c r="F14">
-        <v>49813</v>
+        <v>41164</v>
       </c>
       <c r="G14">
-        <v>4180831</v>
+        <v>4287759</v>
       </c>
       <c r="H14">
         <v>159000</v>
@@ -767,19 +767,19 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>34522</v>
+        <v>35405</v>
       </c>
       <c r="D15">
-        <v>26130</v>
+        <v>26798</v>
       </c>
       <c r="E15">
-        <v>8392</v>
+        <v>8607</v>
       </c>
       <c r="F15">
-        <v>50142</v>
+        <v>41436</v>
       </c>
       <c r="G15">
-        <v>4122297</v>
+        <v>4237716</v>
       </c>
       <c r="H15">
         <v>159000</v>
@@ -793,19 +793,19 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>34107</v>
+        <v>35062</v>
       </c>
       <c r="D16">
-        <v>25764</v>
+        <v>26486</v>
       </c>
       <c r="E16">
-        <v>8343</v>
+        <v>8576</v>
       </c>
       <c r="F16">
-        <v>50474</v>
+        <v>41710</v>
       </c>
       <c r="G16">
-        <v>4063479</v>
+        <v>4187430</v>
       </c>
       <c r="H16">
         <v>159000</v>
@@ -819,19 +819,19 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>33689</v>
+        <v>34716</v>
       </c>
       <c r="D17">
-        <v>25397</v>
+        <v>26171</v>
       </c>
       <c r="E17">
-        <v>8292</v>
+        <v>8545</v>
       </c>
       <c r="F17">
-        <v>50809</v>
+        <v>41987</v>
       </c>
       <c r="G17">
-        <v>4004378</v>
+        <v>4136898</v>
       </c>
       <c r="H17">
         <v>159000</v>
@@ -845,19 +845,19 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>33267</v>
+        <v>34368</v>
       </c>
       <c r="D18">
-        <v>25027</v>
+        <v>25856</v>
       </c>
       <c r="E18">
-        <v>8239</v>
+        <v>8512</v>
       </c>
       <c r="F18">
-        <v>51147</v>
+        <v>42266</v>
       </c>
       <c r="G18">
-        <v>3944992</v>
+        <v>4086120</v>
       </c>
       <c r="H18">
         <v>159000</v>
@@ -871,19 +871,19 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>42830</v>
+        <v>44005</v>
       </c>
       <c r="D19">
-        <v>32156</v>
+        <v>33038</v>
       </c>
       <c r="E19">
-        <v>10674</v>
+        <v>10967</v>
       </c>
       <c r="F19">
-        <v>43496</v>
+        <v>34556</v>
       </c>
       <c r="G19">
-        <v>5090823</v>
+        <v>5240597</v>
       </c>
       <c r="H19">
         <v>159000</v>
@@ -897,19 +897,19 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>42468</v>
+        <v>43717</v>
       </c>
       <c r="D20">
-        <v>31818</v>
+        <v>32754</v>
       </c>
       <c r="E20">
-        <v>10650</v>
+        <v>10963</v>
       </c>
       <c r="F20">
-        <v>43786</v>
+        <v>34786</v>
       </c>
       <c r="G20">
-        <v>5036387</v>
+        <v>5194847</v>
       </c>
       <c r="H20">
         <v>159000</v>
@@ -923,19 +923,19 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>42102</v>
+        <v>43426</v>
       </c>
       <c r="D21">
-        <v>31477</v>
+        <v>32468</v>
       </c>
       <c r="E21">
-        <v>10624</v>
+        <v>10958</v>
       </c>
       <c r="F21">
-        <v>44079</v>
+        <v>35019</v>
       </c>
       <c r="G21">
-        <v>4981684</v>
+        <v>5148870</v>
       </c>
       <c r="H21">
         <v>159000</v>
@@ -949,19 +949,19 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>41732</v>
+        <v>43133</v>
       </c>
       <c r="D22">
-        <v>31136</v>
+        <v>32180</v>
       </c>
       <c r="E22">
-        <v>10597</v>
+        <v>10952</v>
       </c>
       <c r="F22">
-        <v>44374</v>
+        <v>35254</v>
       </c>
       <c r="G22">
-        <v>4926713</v>
+        <v>5102664</v>
       </c>
       <c r="H22">
         <v>159000</v>
@@ -975,19 +975,19 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>41360</v>
+        <v>42837</v>
       </c>
       <c r="D23">
-        <v>30792</v>
+        <v>31892</v>
       </c>
       <c r="E23">
-        <v>10568</v>
+        <v>10945</v>
       </c>
       <c r="F23">
-        <v>44672</v>
+        <v>35490</v>
       </c>
       <c r="G23">
-        <v>4871473</v>
+        <v>5056228</v>
       </c>
       <c r="H23">
         <v>159000</v>
@@ -1001,19 +1001,19 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>40984</v>
+        <v>42538</v>
       </c>
       <c r="D24">
-        <v>30447</v>
+        <v>31601</v>
       </c>
       <c r="E24">
-        <v>10537</v>
+        <v>10937</v>
       </c>
       <c r="F24">
-        <v>44973</v>
+        <v>35729</v>
       </c>
       <c r="G24">
-        <v>4815963</v>
+        <v>5009562</v>
       </c>
       <c r="H24">
         <v>159000</v>
@@ -1027,19 +1027,19 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>50722</v>
+        <v>52355</v>
       </c>
       <c r="D25">
-        <v>37600</v>
+        <v>38810</v>
       </c>
       <c r="E25">
-        <v>13123</v>
+        <v>13545</v>
       </c>
       <c r="F25">
-        <v>37182</v>
+        <v>27876</v>
       </c>
       <c r="G25">
-        <v>5965658</v>
+        <v>6168141</v>
       </c>
       <c r="H25">
         <v>159000</v>
@@ -1053,19 +1053,19 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>50408</v>
+        <v>52119</v>
       </c>
       <c r="D26">
-        <v>37285</v>
+        <v>38551</v>
       </c>
       <c r="E26">
-        <v>13123</v>
+        <v>13568</v>
       </c>
       <c r="F26">
-        <v>43539</v>
+        <v>34170</v>
       </c>
       <c r="G26">
-        <v>5908996</v>
+        <v>6120402</v>
       </c>
       <c r="H26">
         <v>168540</v>
@@ -1079,19 +1079,19 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>50040</v>
+        <v>51830</v>
       </c>
       <c r="D27">
-        <v>36931</v>
+        <v>38253</v>
       </c>
       <c r="E27">
-        <v>13108</v>
+        <v>13577</v>
       </c>
       <c r="F27">
-        <v>43834</v>
+        <v>34402</v>
       </c>
       <c r="G27">
-        <v>5852054</v>
+        <v>6072423</v>
       </c>
       <c r="H27">
         <v>168540</v>
@@ -1105,19 +1105,19 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>49667</v>
+        <v>51538</v>
       </c>
       <c r="D28">
-        <v>36575</v>
+        <v>37953</v>
       </c>
       <c r="E28">
-        <v>13092</v>
+        <v>13585</v>
       </c>
       <c r="F28">
-        <v>44132</v>
+        <v>34635</v>
       </c>
       <c r="G28">
-        <v>5794830</v>
+        <v>6024203</v>
       </c>
       <c r="H28">
         <v>168540</v>
@@ -1131,19 +1131,19 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>49292</v>
+        <v>51243</v>
       </c>
       <c r="D29">
-        <v>36218</v>
+        <v>37651</v>
       </c>
       <c r="E29">
-        <v>13074</v>
+        <v>13592</v>
       </c>
       <c r="F29">
-        <v>44432</v>
+        <v>34871</v>
       </c>
       <c r="G29">
-        <v>5737324</v>
+        <v>5975740</v>
       </c>
       <c r="H29">
         <v>168540</v>
@@ -1157,19 +1157,19 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>48913</v>
+        <v>50946</v>
       </c>
       <c r="D30">
-        <v>35858</v>
+        <v>37348</v>
       </c>
       <c r="E30">
-        <v>13055</v>
+        <v>13598</v>
       </c>
       <c r="F30">
-        <v>44735</v>
+        <v>35109</v>
       </c>
       <c r="G30">
-        <v>5679534</v>
+        <v>5927033</v>
       </c>
       <c r="H30">
         <v>168540</v>
@@ -1183,19 +1183,19 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>48531</v>
+        <v>50646</v>
       </c>
       <c r="D31">
-        <v>35497</v>
+        <v>37044</v>
       </c>
       <c r="E31">
-        <v>13034</v>
+        <v>13602</v>
       </c>
       <c r="F31">
-        <v>45041</v>
+        <v>35349</v>
       </c>
       <c r="G31">
-        <v>5621459</v>
+        <v>5878082</v>
       </c>
       <c r="H31">
         <v>168540</v>
@@ -1209,19 +1209,19 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>48145</v>
+        <v>50343</v>
       </c>
       <c r="D32">
-        <v>35134</v>
+        <v>36738</v>
       </c>
       <c r="E32">
-        <v>13011</v>
+        <v>13605</v>
       </c>
       <c r="F32">
-        <v>45349</v>
+        <v>35591</v>
       </c>
       <c r="G32">
-        <v>5563098</v>
+        <v>5828886</v>
       </c>
       <c r="H32">
         <v>168540</v>
@@ -1235,19 +1235,19 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>47756</v>
+        <v>50038</v>
       </c>
       <c r="D33">
-        <v>34769</v>
+        <v>36431</v>
       </c>
       <c r="E33">
-        <v>12987</v>
+        <v>13607</v>
       </c>
       <c r="F33">
-        <v>45661</v>
+        <v>35836</v>
       </c>
       <c r="G33">
-        <v>5504451</v>
+        <v>5779444</v>
       </c>
       <c r="H33">
         <v>168540</v>
@@ -1261,19 +1261,19 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>47363</v>
+        <v>49729</v>
       </c>
       <c r="D34">
-        <v>34403</v>
+        <v>36122</v>
       </c>
       <c r="E34">
-        <v>12960</v>
+        <v>13608</v>
       </c>
       <c r="F34">
-        <v>45975</v>
+        <v>36082</v>
       </c>
       <c r="G34">
-        <v>5445516</v>
+        <v>5729754</v>
       </c>
       <c r="H34">
         <v>168540</v>
@@ -1287,19 +1287,19 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>46967</v>
+        <v>49418</v>
       </c>
       <c r="D35">
-        <v>34034</v>
+        <v>35811</v>
       </c>
       <c r="E35">
-        <v>12932</v>
+        <v>13607</v>
       </c>
       <c r="F35">
-        <v>46292</v>
+        <v>36331</v>
       </c>
       <c r="G35">
-        <v>5386291</v>
+        <v>5679815</v>
       </c>
       <c r="H35">
         <v>168540</v>
@@ -1313,19 +1313,19 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <v>46566</v>
+        <v>49104</v>
       </c>
       <c r="D36">
-        <v>33664</v>
+        <v>35499</v>
       </c>
       <c r="E36">
-        <v>12902</v>
+        <v>13605</v>
       </c>
       <c r="F36">
-        <v>46613</v>
+        <v>36582</v>
       </c>
       <c r="G36">
-        <v>5326777</v>
+        <v>5629628</v>
       </c>
       <c r="H36">
         <v>168540</v>
@@ -1339,19 +1339,19 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>46162</v>
+        <v>48787</v>
       </c>
       <c r="D37">
-        <v>33292</v>
+        <v>35185</v>
       </c>
       <c r="E37">
-        <v>12870</v>
+        <v>13602</v>
       </c>
       <c r="F37">
-        <v>46936</v>
+        <v>36836</v>
       </c>
       <c r="G37">
-        <v>5266971</v>
+        <v>5579190</v>
       </c>
       <c r="H37">
         <v>168540</v>
@@ -1365,19 +1365,19 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>45755</v>
+        <v>48467</v>
       </c>
       <c r="D38">
-        <v>32919</v>
+        <v>34870</v>
       </c>
       <c r="E38">
-        <v>12836</v>
+        <v>13597</v>
       </c>
       <c r="F38">
-        <v>53734</v>
+        <v>43564</v>
       </c>
       <c r="G38">
-        <v>5200401</v>
+        <v>5522029</v>
       </c>
       <c r="H38">
         <v>178652</v>
@@ -1391,19 +1391,19 @@
         <v>38</v>
       </c>
       <c r="C39">
-        <v>45287</v>
+        <v>48088</v>
       </c>
       <c r="D39">
-        <v>32503</v>
+        <v>34513</v>
       </c>
       <c r="E39">
-        <v>12784</v>
+        <v>13575</v>
       </c>
       <c r="F39">
-        <v>54108</v>
+        <v>43867</v>
       </c>
       <c r="G39">
-        <v>5133509</v>
+        <v>5464587</v>
       </c>
       <c r="H39">
         <v>178652</v>
@@ -1417,19 +1417,19 @@
         <v>39</v>
       </c>
       <c r="C40">
-        <v>44814</v>
+        <v>47705</v>
       </c>
       <c r="D40">
-        <v>32084</v>
+        <v>34154</v>
       </c>
       <c r="E40">
-        <v>12730</v>
+        <v>13551</v>
       </c>
       <c r="F40">
-        <v>54486</v>
+        <v>44174</v>
       </c>
       <c r="G40">
-        <v>5066293</v>
+        <v>5406862</v>
       </c>
       <c r="H40">
         <v>178652</v>
@@ -1443,19 +1443,19 @@
         <v>40</v>
       </c>
       <c r="C41">
-        <v>44338</v>
+        <v>47318</v>
       </c>
       <c r="D41">
-        <v>31664</v>
+        <v>33793</v>
       </c>
       <c r="E41">
-        <v>12673</v>
+        <v>13525</v>
       </c>
       <c r="F41">
-        <v>54867</v>
+        <v>44483</v>
       </c>
       <c r="G41">
-        <v>4998752</v>
+        <v>5348854</v>
       </c>
       <c r="H41">
         <v>178652</v>
@@ -1469,19 +1469,19 @@
         <v>41</v>
       </c>
       <c r="C42">
-        <v>43856</v>
+        <v>46928</v>
       </c>
       <c r="D42">
-        <v>31242</v>
+        <v>33430</v>
       </c>
       <c r="E42">
-        <v>12614</v>
+        <v>13497</v>
       </c>
       <c r="F42">
-        <v>55253</v>
+        <v>44795</v>
       </c>
       <c r="G42">
-        <v>4930885</v>
+        <v>5290561</v>
       </c>
       <c r="H42">
         <v>178652</v>
@@ -1495,19 +1495,19 @@
         <v>42</v>
       </c>
       <c r="C43">
-        <v>43370</v>
+        <v>46534</v>
       </c>
       <c r="D43">
-        <v>30818</v>
+        <v>33066</v>
       </c>
       <c r="E43">
-        <v>12552</v>
+        <v>13468</v>
       </c>
       <c r="F43">
-        <v>55641</v>
+        <v>45111</v>
       </c>
       <c r="G43">
-        <v>4862692</v>
+        <v>5231983</v>
       </c>
       <c r="H43">
         <v>178652</v>
@@ -1521,19 +1521,19 @@
         <v>43</v>
       </c>
       <c r="C44">
-        <v>42880</v>
+        <v>46136</v>
       </c>
       <c r="D44">
-        <v>30392</v>
+        <v>32700</v>
       </c>
       <c r="E44">
-        <v>12488</v>
+        <v>13436</v>
       </c>
       <c r="F44">
-        <v>56034</v>
+        <v>45429</v>
       </c>
       <c r="G44">
-        <v>4794170</v>
+        <v>5173118</v>
       </c>
       <c r="H44">
         <v>178652</v>
@@ -1547,19 +1547,19 @@
         <v>44</v>
       </c>
       <c r="C45">
-        <v>42384</v>
+        <v>45734</v>
       </c>
       <c r="D45">
-        <v>29964</v>
+        <v>32332</v>
       </c>
       <c r="E45">
-        <v>12421</v>
+        <v>13402</v>
       </c>
       <c r="F45">
-        <v>56430</v>
+        <v>45750</v>
       </c>
       <c r="G45">
-        <v>4725319</v>
+        <v>5113965</v>
       </c>
       <c r="H45">
         <v>178652</v>
@@ -1573,19 +1573,19 @@
         <v>45</v>
       </c>
       <c r="C46">
-        <v>41884</v>
+        <v>45329</v>
       </c>
       <c r="D46">
-        <v>29533</v>
+        <v>31962</v>
       </c>
       <c r="E46">
-        <v>12351</v>
+        <v>13367</v>
       </c>
       <c r="F46">
-        <v>56830</v>
+        <v>46074</v>
       </c>
       <c r="G46">
-        <v>4656138</v>
+        <v>5054524</v>
       </c>
       <c r="H46">
         <v>178652</v>
@@ -1599,19 +1599,19 @@
         <v>46</v>
       </c>
       <c r="C47">
-        <v>41379</v>
+        <v>44919</v>
       </c>
       <c r="D47">
-        <v>29101</v>
+        <v>31591</v>
       </c>
       <c r="E47">
-        <v>12278</v>
+        <v>13329</v>
       </c>
       <c r="F47">
-        <v>57234</v>
+        <v>46402</v>
       </c>
       <c r="G47">
-        <v>4586626</v>
+        <v>4994794</v>
       </c>
       <c r="H47">
         <v>178652</v>
@@ -1625,19 +1625,19 @@
         <v>47</v>
       </c>
       <c r="C48">
-        <v>40869</v>
+        <v>44506</v>
       </c>
       <c r="D48">
-        <v>28666</v>
+        <v>31217</v>
       </c>
       <c r="E48">
-        <v>12203</v>
+        <v>13288</v>
       </c>
       <c r="F48">
-        <v>57642</v>
+        <v>46733</v>
       </c>
       <c r="G48">
-        <v>4516781</v>
+        <v>4934772</v>
       </c>
       <c r="H48">
         <v>178652</v>
@@ -1651,19 +1651,19 @@
         <v>48</v>
       </c>
       <c r="C49">
-        <v>40354</v>
+        <v>44088</v>
       </c>
       <c r="D49">
-        <v>28230</v>
+        <v>30842</v>
       </c>
       <c r="E49">
-        <v>12124</v>
+        <v>13246</v>
       </c>
       <c r="F49">
-        <v>58054</v>
+        <v>47067</v>
       </c>
       <c r="G49">
-        <v>4446603</v>
+        <v>4874459</v>
       </c>
       <c r="H49">
         <v>178652</v>
@@ -1677,19 +1677,19 @@
         <v>49</v>
       </c>
       <c r="C50">
-        <v>39834</v>
+        <v>43667</v>
       </c>
       <c r="D50">
-        <v>27791</v>
+        <v>30465</v>
       </c>
       <c r="E50">
-        <v>12043</v>
+        <v>13201</v>
       </c>
       <c r="F50">
-        <v>65331</v>
+        <v>54264</v>
       </c>
       <c r="G50">
-        <v>4369229</v>
+        <v>4806994</v>
       </c>
       <c r="H50">
         <v>189372</v>
@@ -1703,19 +1703,19 @@
         <v>50</v>
       </c>
       <c r="C51">
-        <v>39247</v>
+        <v>43179</v>
       </c>
       <c r="D51">
-        <v>27308</v>
+        <v>30044</v>
       </c>
       <c r="E51">
-        <v>11939</v>
+        <v>13136</v>
       </c>
       <c r="F51">
-        <v>65800</v>
+        <v>54654</v>
       </c>
       <c r="G51">
-        <v>4291490</v>
+        <v>4739204</v>
       </c>
       <c r="H51">
         <v>189372</v>
@@ -1729,19 +1729,19 @@
         <v>51</v>
       </c>
       <c r="C52">
-        <v>38654</v>
+        <v>42687</v>
       </c>
       <c r="D52">
-        <v>26822</v>
+        <v>29620</v>
       </c>
       <c r="E52">
-        <v>11833</v>
+        <v>13067</v>
       </c>
       <c r="F52">
-        <v>66274</v>
+        <v>55048</v>
       </c>
       <c r="G52">
-        <v>4213383</v>
+        <v>4671089</v>
       </c>
       <c r="H52">
         <v>189372</v>
@@ -1755,19 +1755,19 @@
         <v>52</v>
       </c>
       <c r="C53">
-        <v>38056</v>
+        <v>42190</v>
       </c>
       <c r="D53">
-        <v>26334</v>
+        <v>29194</v>
       </c>
       <c r="E53">
-        <v>11722</v>
+        <v>12996</v>
       </c>
       <c r="F53">
-        <v>66753</v>
+        <v>55446</v>
       </c>
       <c r="G53">
-        <v>4134908</v>
+        <v>4602647</v>
       </c>
       <c r="H53">
         <v>189372</v>
@@ -1781,19 +1781,19 @@
         <v>53</v>
       </c>
       <c r="C54">
-        <v>37451</v>
+        <v>41688</v>
       </c>
       <c r="D54">
-        <v>25843</v>
+        <v>28767</v>
       </c>
       <c r="E54">
-        <v>11608</v>
+        <v>12921</v>
       </c>
       <c r="F54">
-        <v>67237</v>
+        <v>55848</v>
       </c>
       <c r="G54">
-        <v>4056063</v>
+        <v>4533878</v>
       </c>
       <c r="H54">
         <v>189372</v>
@@ -1807,19 +1807,19 @@
         <v>54</v>
       </c>
       <c r="C55">
-        <v>36840</v>
+        <v>41180</v>
       </c>
       <c r="D55">
-        <v>25350</v>
+        <v>28337</v>
       </c>
       <c r="E55">
-        <v>11490</v>
+        <v>12844</v>
       </c>
       <c r="F55">
-        <v>67725</v>
+        <v>56253</v>
       </c>
       <c r="G55">
-        <v>3976847</v>
+        <v>4464781</v>
       </c>
       <c r="H55">
         <v>189372</v>
@@ -1833,19 +1833,19 @@
         <v>55</v>
       </c>
       <c r="C56">
-        <v>36224</v>
+        <v>40668</v>
       </c>
       <c r="D56">
-        <v>24855</v>
+        <v>27905</v>
       </c>
       <c r="E56">
-        <v>11368</v>
+        <v>12763</v>
       </c>
       <c r="F56">
-        <v>68219</v>
+        <v>56663</v>
       </c>
       <c r="G56">
-        <v>3897260</v>
+        <v>4395355</v>
       </c>
       <c r="H56">
         <v>189372</v>
@@ -1859,19 +1859,19 @@
         <v>56</v>
       </c>
       <c r="C57">
-        <v>35600</v>
+        <v>40150</v>
       </c>
       <c r="D57">
-        <v>24358</v>
+        <v>27471</v>
       </c>
       <c r="E57">
-        <v>11243</v>
+        <v>12679</v>
       </c>
       <c r="F57">
-        <v>68717</v>
+        <v>57077</v>
       </c>
       <c r="G57">
-        <v>3817300</v>
+        <v>4325598</v>
       </c>
       <c r="H57">
         <v>189372</v>
@@ -1885,19 +1885,19 @@
         <v>57</v>
       </c>
       <c r="C58">
-        <v>34971</v>
+        <v>39627</v>
       </c>
       <c r="D58">
-        <v>23858</v>
+        <v>27035</v>
       </c>
       <c r="E58">
-        <v>11113</v>
+        <v>12593</v>
       </c>
       <c r="F58">
-        <v>69221</v>
+        <v>57496</v>
       </c>
       <c r="G58">
-        <v>3736966</v>
+        <v>4255510</v>
       </c>
       <c r="H58">
         <v>189372</v>
@@ -1911,19 +1911,19 @@
         <v>58</v>
       </c>
       <c r="C59">
-        <v>34335</v>
+        <v>39099</v>
       </c>
       <c r="D59">
-        <v>23356</v>
+        <v>26597</v>
       </c>
       <c r="E59">
-        <v>10979</v>
+        <v>12502</v>
       </c>
       <c r="F59">
-        <v>69730</v>
+        <v>57918</v>
       </c>
       <c r="G59">
-        <v>3656257</v>
+        <v>4185089</v>
       </c>
       <c r="H59">
         <v>189372</v>
@@ -1937,19 +1937,19 @@
         <v>59</v>
       </c>
       <c r="C60">
-        <v>33692</v>
+        <v>38566</v>
       </c>
       <c r="D60">
-        <v>22852</v>
+        <v>26157</v>
       </c>
       <c r="E60">
-        <v>10841</v>
+        <v>12409</v>
       </c>
       <c r="F60">
-        <v>70244</v>
+        <v>58345</v>
       </c>
       <c r="G60">
-        <v>3575173</v>
+        <v>4114335</v>
       </c>
       <c r="H60">
         <v>189372</v>
@@ -1963,19 +1963,19 @@
         <v>60</v>
       </c>
       <c r="C61">
-        <v>33043</v>
+        <v>38026</v>
       </c>
       <c r="D61">
-        <v>22345</v>
+        <v>25715</v>
       </c>
       <c r="E61">
-        <v>10698</v>
+        <v>12312</v>
       </c>
       <c r="F61">
-        <v>70763</v>
+        <v>58777</v>
       </c>
       <c r="G61">
-        <v>3493711</v>
+        <v>4043246</v>
       </c>
       <c r="H61">
         <v>189372</v>
@@ -1989,19 +1989,19 @@
         <v>61</v>
       </c>
       <c r="C62">
-        <v>32387</v>
+        <v>37481</v>
       </c>
       <c r="D62">
-        <v>21836</v>
+        <v>25270</v>
       </c>
       <c r="E62">
-        <v>10551</v>
+        <v>12211</v>
       </c>
       <c r="F62">
-        <v>78560</v>
+        <v>66485</v>
       </c>
       <c r="G62">
-        <v>3404600</v>
+        <v>3964551</v>
       </c>
       <c r="H62">
         <v>200734</v>
@@ -2015,19 +2015,19 @@
         <v>62</v>
       </c>
       <c r="C63">
-        <v>31657</v>
+        <v>36863</v>
       </c>
       <c r="D63">
-        <v>21279</v>
+        <v>24778</v>
       </c>
       <c r="E63">
-        <v>10378</v>
+        <v>12085</v>
       </c>
       <c r="F63">
-        <v>79144</v>
+        <v>66979</v>
       </c>
       <c r="G63">
-        <v>3315078</v>
+        <v>3885487</v>
       </c>
       <c r="H63">
         <v>200734</v>
@@ -2041,19 +2041,19 @@
         <v>63</v>
       </c>
       <c r="C64">
-        <v>30919</v>
+        <v>36239</v>
       </c>
       <c r="D64">
-        <v>20719</v>
+        <v>24284</v>
       </c>
       <c r="E64">
-        <v>10199</v>
+        <v>11954</v>
       </c>
       <c r="F64">
-        <v>79735</v>
+        <v>67479</v>
       </c>
       <c r="G64">
-        <v>3225143</v>
+        <v>3806054</v>
       </c>
       <c r="H64">
         <v>200734</v>
@@ -2067,19 +2067,19 @@
         <v>64</v>
       </c>
       <c r="C65">
-        <v>30173</v>
+        <v>35607</v>
       </c>
       <c r="D65">
-        <v>20157</v>
+        <v>23788</v>
       </c>
       <c r="E65">
-        <v>10015</v>
+        <v>11819</v>
       </c>
       <c r="F65">
-        <v>80332</v>
+        <v>67984</v>
       </c>
       <c r="G65">
-        <v>3134796</v>
+        <v>3726250</v>
       </c>
       <c r="H65">
         <v>200734</v>
@@ -2093,19 +2093,19 @@
         <v>65</v>
       </c>
       <c r="C66">
-        <v>29419</v>
+        <v>34969</v>
       </c>
       <c r="D66">
-        <v>19592</v>
+        <v>23289</v>
       </c>
       <c r="E66">
-        <v>9826</v>
+        <v>11680</v>
       </c>
       <c r="F66">
-        <v>80935</v>
+        <v>68494</v>
       </c>
       <c r="G66">
-        <v>3044036</v>
+        <v>3646076</v>
       </c>
       <c r="H66">
         <v>200734</v>
@@ -2119,19 +2119,19 @@
         <v>66</v>
       </c>
       <c r="C67">
-        <v>28657</v>
+        <v>34324</v>
       </c>
       <c r="D67">
-        <v>19025</v>
+        <v>22788</v>
       </c>
       <c r="E67">
-        <v>9632</v>
+        <v>11536</v>
       </c>
       <c r="F67">
-        <v>81544</v>
+        <v>69010</v>
       </c>
       <c r="G67">
-        <v>2952860</v>
+        <v>3565529</v>
       </c>
       <c r="H67">
         <v>200734</v>
@@ -2145,19 +2145,19 @@
         <v>67</v>
       </c>
       <c r="C68">
-        <v>27887</v>
+        <v>33673</v>
       </c>
       <c r="D68">
-        <v>18455</v>
+        <v>22285</v>
       </c>
       <c r="E68">
-        <v>9431</v>
+        <v>11388</v>
       </c>
       <c r="F68">
-        <v>82160</v>
+        <v>69532</v>
       </c>
       <c r="G68">
-        <v>2861268</v>
+        <v>3484610</v>
       </c>
       <c r="H68">
         <v>200734</v>
@@ -2171,19 +2171,19 @@
         <v>68</v>
       </c>
       <c r="C69">
-        <v>27108</v>
+        <v>33014</v>
       </c>
       <c r="D69">
-        <v>17883</v>
+        <v>21779</v>
       </c>
       <c r="E69">
-        <v>9225</v>
+        <v>11235</v>
       </c>
       <c r="F69">
-        <v>82783</v>
+        <v>70059</v>
       </c>
       <c r="G69">
-        <v>2769260</v>
+        <v>3403316</v>
       </c>
       <c r="H69">
         <v>200734</v>
@@ -2197,19 +2197,19 @@
         <v>69</v>
       </c>
       <c r="C70">
-        <v>26321</v>
+        <v>32348</v>
       </c>
       <c r="D70">
-        <v>17308</v>
+        <v>21271</v>
       </c>
       <c r="E70">
-        <v>9014</v>
+        <v>11077</v>
       </c>
       <c r="F70">
-        <v>83413</v>
+        <v>70591</v>
       </c>
       <c r="G70">
-        <v>2676834</v>
+        <v>3321648</v>
       </c>
       <c r="H70">
         <v>200734</v>
@@ -2223,19 +2223,19 @@
         <v>70</v>
       </c>
       <c r="C71">
-        <v>25526</v>
+        <v>31675</v>
       </c>
       <c r="D71">
-        <v>16730</v>
+        <v>20760</v>
       </c>
       <c r="E71">
-        <v>8796</v>
+        <v>10915</v>
       </c>
       <c r="F71">
-        <v>84049</v>
+        <v>71130</v>
       </c>
       <c r="G71">
-        <v>2583989</v>
+        <v>3239603</v>
       </c>
       <c r="H71">
         <v>200734</v>
@@ -2249,19 +2249,19 @@
         <v>71</v>
       </c>
       <c r="C72">
-        <v>24722</v>
+        <v>30994</v>
       </c>
       <c r="D72">
-        <v>16150</v>
+        <v>20248</v>
       </c>
       <c r="E72">
-        <v>8572</v>
+        <v>10747</v>
       </c>
       <c r="F72">
-        <v>84692</v>
+        <v>71674</v>
       </c>
       <c r="G72">
-        <v>2490725</v>
+        <v>3157182</v>
       </c>
       <c r="H72">
         <v>200734</v>
@@ -2275,19 +2275,19 @@
         <v>72</v>
       </c>
       <c r="C73">
-        <v>23909</v>
+        <v>30306</v>
       </c>
       <c r="D73">
-        <v>15567</v>
+        <v>19732</v>
       </c>
       <c r="E73">
-        <v>8342</v>
+        <v>10574</v>
       </c>
       <c r="F73">
-        <v>85343</v>
+        <v>72225</v>
       </c>
       <c r="G73">
-        <v>2397041</v>
+        <v>3074384</v>
       </c>
       <c r="H73">
         <v>200734</v>
@@ -2301,19 +2301,19 @@
         <v>73</v>
       </c>
       <c r="C74">
-        <v>23087</v>
+        <v>29611</v>
       </c>
       <c r="D74">
-        <v>14982</v>
+        <v>19215</v>
       </c>
       <c r="E74">
-        <v>8105</v>
+        <v>10396</v>
       </c>
       <c r="F74">
-        <v>93708</v>
+        <v>80489</v>
       </c>
       <c r="G74">
-        <v>2295227</v>
+        <v>2983499</v>
       </c>
       <c r="H74">
         <v>212778</v>
@@ -2327,19 +2327,19 @@
         <v>74</v>
       </c>
       <c r="C75">
-        <v>22181</v>
+        <v>28833</v>
       </c>
       <c r="D75">
-        <v>14345</v>
+        <v>18647</v>
       </c>
       <c r="E75">
-        <v>7836</v>
+        <v>10186</v>
       </c>
       <c r="F75">
-        <v>94433</v>
+        <v>81112</v>
       </c>
       <c r="G75">
-        <v>2192958</v>
+        <v>2892201</v>
       </c>
       <c r="H75">
         <v>212778</v>
@@ -2353,19 +2353,19 @@
         <v>75</v>
       </c>
       <c r="C76">
-        <v>21266</v>
+        <v>28046</v>
       </c>
       <c r="D76">
-        <v>13706</v>
+        <v>18076</v>
       </c>
       <c r="E76">
-        <v>7560</v>
+        <v>9970</v>
       </c>
       <c r="F76">
-        <v>95165</v>
+        <v>81741</v>
       </c>
       <c r="G76">
-        <v>2090233</v>
+        <v>2800490</v>
       </c>
       <c r="H76">
         <v>212778</v>
@@ -2379,19 +2379,19 @@
         <v>76</v>
       </c>
       <c r="C77">
-        <v>20340</v>
+        <v>27251</v>
       </c>
       <c r="D77">
-        <v>13064</v>
+        <v>17503</v>
       </c>
       <c r="E77">
-        <v>7276</v>
+        <v>9748</v>
       </c>
       <c r="F77">
-        <v>95906</v>
+        <v>82377</v>
       </c>
       <c r="G77">
-        <v>1987051</v>
+        <v>2708365</v>
       </c>
       <c r="H77">
         <v>212778</v>
@@ -2405,19 +2405,19 @@
         <v>77</v>
       </c>
       <c r="C78">
-        <v>19403</v>
+        <v>26447</v>
       </c>
       <c r="D78">
-        <v>12419</v>
+        <v>16927</v>
       </c>
       <c r="E78">
-        <v>6984</v>
+        <v>9519</v>
       </c>
       <c r="F78">
-        <v>96655</v>
+        <v>83021</v>
       </c>
       <c r="G78">
-        <v>1883412</v>
+        <v>2615826</v>
       </c>
       <c r="H78">
         <v>212778</v>
@@ -2431,19 +2431,19 @@
         <v>78</v>
       </c>
       <c r="C79">
-        <v>18456</v>
+        <v>25633</v>
       </c>
       <c r="D79">
-        <v>11771</v>
+        <v>16349</v>
       </c>
       <c r="E79">
-        <v>6685</v>
+        <v>9284</v>
       </c>
       <c r="F79">
-        <v>97413</v>
+        <v>83671</v>
       </c>
       <c r="G79">
-        <v>1779314</v>
+        <v>2522870</v>
       </c>
       <c r="H79">
         <v>212778</v>
@@ -2457,19 +2457,19 @@
         <v>79</v>
       </c>
       <c r="C80">
-        <v>17498</v>
+        <v>24810</v>
       </c>
       <c r="D80">
-        <v>11121</v>
+        <v>15768</v>
       </c>
       <c r="E80">
-        <v>6377</v>
+        <v>9042</v>
       </c>
       <c r="F80">
-        <v>98179</v>
+        <v>84330</v>
       </c>
       <c r="G80">
-        <v>1674757</v>
+        <v>2429498</v>
       </c>
       <c r="H80">
         <v>212778</v>
@@ -2483,19 +2483,19 @@
         <v>80</v>
       </c>
       <c r="C81">
-        <v>16529</v>
+        <v>23978</v>
       </c>
       <c r="D81">
-        <v>10467</v>
+        <v>15184</v>
       </c>
       <c r="E81">
-        <v>6062</v>
+        <v>8793</v>
       </c>
       <c r="F81">
-        <v>98955</v>
+        <v>84996</v>
       </c>
       <c r="G81">
-        <v>1569741</v>
+        <v>2335709</v>
       </c>
       <c r="H81">
         <v>212778</v>
@@ -2509,19 +2509,19 @@
         <v>81</v>
       </c>
       <c r="C82">
-        <v>15549</v>
+        <v>23136</v>
       </c>
       <c r="D82">
-        <v>9811</v>
+        <v>14598</v>
       </c>
       <c r="E82">
-        <v>5738</v>
+        <v>8538</v>
       </c>
       <c r="F82">
-        <v>99739</v>
+        <v>85669</v>
       </c>
       <c r="G82">
-        <v>1464264</v>
+        <v>2241502</v>
       </c>
       <c r="H82">
         <v>212778</v>
@@ -2535,19 +2535,19 @@
         <v>82</v>
       </c>
       <c r="C83">
-        <v>14557</v>
+        <v>22284</v>
       </c>
       <c r="D83">
-        <v>9152</v>
+        <v>14009</v>
       </c>
       <c r="E83">
-        <v>5406</v>
+        <v>8275</v>
       </c>
       <c r="F83">
-        <v>100532</v>
+        <v>86350</v>
       </c>
       <c r="G83">
-        <v>1358327</v>
+        <v>2146877</v>
       </c>
       <c r="H83">
         <v>212778</v>
@@ -2561,19 +2561,19 @@
         <v>83</v>
       </c>
       <c r="C84">
-        <v>13554</v>
+        <v>21423</v>
       </c>
       <c r="D84">
-        <v>8490</v>
+        <v>13418</v>
       </c>
       <c r="E84">
-        <v>5065</v>
+        <v>8005</v>
       </c>
       <c r="F84">
-        <v>101335</v>
+        <v>87040</v>
       </c>
       <c r="G84">
-        <v>1251927</v>
+        <v>2051833</v>
       </c>
       <c r="H84">
         <v>212778</v>
@@ -2587,19 +2587,19 @@
         <v>84</v>
       </c>
       <c r="C85">
-        <v>12539</v>
+        <v>20551</v>
       </c>
       <c r="D85">
-        <v>7825</v>
+        <v>12824</v>
       </c>
       <c r="E85">
-        <v>4715</v>
+        <v>7727</v>
       </c>
       <c r="F85">
-        <v>102147</v>
+        <v>87737</v>
       </c>
       <c r="G85">
-        <v>1145066</v>
+        <v>1956368</v>
       </c>
       <c r="H85">
         <v>212778</v>
@@ -2613,19 +2613,19 @@
         <v>85</v>
       </c>
       <c r="C86">
-        <v>11512</v>
+        <v>19669</v>
       </c>
       <c r="D86">
-        <v>7157</v>
+        <v>12227</v>
       </c>
       <c r="E86">
-        <v>4355</v>
+        <v>7441</v>
       </c>
       <c r="F86">
-        <v>111139</v>
+        <v>96614</v>
       </c>
       <c r="G86">
-        <v>1029572</v>
+        <v>1852314</v>
       </c>
       <c r="H86">
         <v>225545</v>
@@ -2639,19 +2639,19 @@
         <v>86</v>
       </c>
       <c r="C87">
-        <v>10391</v>
+        <v>18694</v>
       </c>
       <c r="D87">
-        <v>6435</v>
+        <v>11577</v>
       </c>
       <c r="E87">
-        <v>3956</v>
+        <v>7117</v>
       </c>
       <c r="F87">
-        <v>112036</v>
+        <v>97394</v>
       </c>
       <c r="G87">
-        <v>913580</v>
+        <v>1747803</v>
       </c>
       <c r="H87">
         <v>225545</v>
@@ -2665,19 +2665,19 @@
         <v>87</v>
       </c>
       <c r="C88">
-        <v>9255</v>
+        <v>17707</v>
       </c>
       <c r="D88">
-        <v>5710</v>
+        <v>10924</v>
       </c>
       <c r="E88">
-        <v>3546</v>
+        <v>6783</v>
       </c>
       <c r="F88">
-        <v>112944</v>
+        <v>98183</v>
       </c>
       <c r="G88">
-        <v>797091</v>
+        <v>1642837</v>
       </c>
       <c r="H88">
         <v>225545</v>
@@ -2691,19 +2691,19 @@
         <v>88</v>
       </c>
       <c r="C89">
-        <v>8107</v>
+        <v>16708</v>
       </c>
       <c r="D89">
-        <v>4982</v>
+        <v>10268</v>
       </c>
       <c r="E89">
-        <v>3125</v>
+        <v>6441</v>
       </c>
       <c r="F89">
-        <v>113863</v>
+        <v>98982</v>
       </c>
       <c r="G89">
-        <v>680103</v>
+        <v>1537415</v>
       </c>
       <c r="H89">
         <v>225545</v>
@@ -2717,19 +2717,19 @@
         <v>89</v>
       </c>
       <c r="C90">
-        <v>6944</v>
+        <v>15698</v>
       </c>
       <c r="D90">
-        <v>4251</v>
+        <v>9609</v>
       </c>
       <c r="E90">
-        <v>2694</v>
+        <v>6089</v>
       </c>
       <c r="F90">
-        <v>114793</v>
+        <v>99790</v>
       </c>
       <c r="G90">
-        <v>562616</v>
+        <v>1431535</v>
       </c>
       <c r="H90">
         <v>225545</v>
@@ -2743,19 +2743,19 @@
         <v>90</v>
       </c>
       <c r="C91">
-        <v>5767</v>
+        <v>14675</v>
       </c>
       <c r="D91">
-        <v>3516</v>
+        <v>8947</v>
       </c>
       <c r="E91">
-        <v>2251</v>
+        <v>5728</v>
       </c>
       <c r="F91">
-        <v>115735</v>
+        <v>100609</v>
       </c>
       <c r="G91">
-        <v>444630</v>
+        <v>1325199</v>
       </c>
       <c r="H91">
         <v>225545</v>
@@ -2769,19 +2769,19 @@
         <v>91</v>
       </c>
       <c r="C92">
-        <v>4576</v>
+        <v>13639</v>
       </c>
       <c r="D92">
-        <v>2779</v>
+        <v>8282</v>
       </c>
       <c r="E92">
-        <v>1797</v>
+        <v>5357</v>
       </c>
       <c r="F92">
-        <v>116687</v>
+        <v>101437</v>
       </c>
       <c r="G92">
-        <v>326145</v>
+        <v>1218405</v>
       </c>
       <c r="H92">
         <v>225545</v>
@@ -2795,19 +2795,19 @@
         <v>92</v>
       </c>
       <c r="C93">
-        <v>3370</v>
+        <v>12591</v>
       </c>
       <c r="D93">
-        <v>2038</v>
+        <v>7615</v>
       </c>
       <c r="E93">
-        <v>1332</v>
+        <v>4976</v>
       </c>
       <c r="F93">
-        <v>117652</v>
+        <v>102276</v>
       </c>
       <c r="G93">
-        <v>207161</v>
+        <v>1111153</v>
       </c>
       <c r="H93">
         <v>225545</v>
@@ -2821,19 +2821,19 @@
         <v>93</v>
       </c>
       <c r="C94">
-        <v>2150</v>
+        <v>11530</v>
       </c>
       <c r="D94">
-        <v>1295</v>
+        <v>6945</v>
       </c>
       <c r="E94">
-        <v>855</v>
+        <v>4585</v>
       </c>
       <c r="F94">
-        <v>118629</v>
+        <v>103125</v>
       </c>
       <c r="G94">
-        <v>87678</v>
+        <v>1003444</v>
       </c>
       <c r="H94">
         <v>225545</v>
@@ -2847,22 +2847,230 @@
         <v>94</v>
       </c>
       <c r="C95">
-        <v>914</v>
+        <v>10455</v>
       </c>
       <c r="D95">
-        <v>548</v>
+        <v>6272</v>
       </c>
       <c r="E95">
-        <v>366</v>
+        <v>4184</v>
       </c>
       <c r="F95">
-        <v>119618</v>
+        <v>103984</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>895276</v>
       </c>
       <c r="H95">
         <v>225545</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>95</v>
+      </c>
+      <c r="C96">
+        <v>9367</v>
+      </c>
+      <c r="D96">
+        <v>5595</v>
+      </c>
+      <c r="E96">
+        <v>3772</v>
+      </c>
+      <c r="F96">
+        <v>104855</v>
+      </c>
+      <c r="G96">
+        <v>786649</v>
+      </c>
+      <c r="H96">
+        <v>225545</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>96</v>
+      </c>
+      <c r="C97">
+        <v>8266</v>
+      </c>
+      <c r="D97">
+        <v>4917</v>
+      </c>
+      <c r="E97">
+        <v>3349</v>
+      </c>
+      <c r="F97">
+        <v>105736</v>
+      </c>
+      <c r="G97">
+        <v>677564</v>
+      </c>
+      <c r="H97">
+        <v>225545</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>97</v>
+      </c>
+      <c r="C98">
+        <v>7150</v>
+      </c>
+      <c r="D98">
+        <v>4235</v>
+      </c>
+      <c r="E98">
+        <v>2915</v>
+      </c>
+      <c r="F98">
+        <v>115290</v>
+      </c>
+      <c r="G98">
+        <v>559359</v>
+      </c>
+      <c r="H98">
+        <v>239077</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>98</v>
+      </c>
+      <c r="C99">
+        <v>5928</v>
+      </c>
+      <c r="D99">
+        <v>3496</v>
+      </c>
+      <c r="E99">
+        <v>2432</v>
+      </c>
+      <c r="F99">
+        <v>116267</v>
+      </c>
+      <c r="G99">
+        <v>440660</v>
+      </c>
+      <c r="H99">
+        <v>239077</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>99</v>
+      </c>
+      <c r="C100">
+        <v>4690</v>
+      </c>
+      <c r="D100">
+        <v>2754</v>
+      </c>
+      <c r="E100">
+        <v>1936</v>
+      </c>
+      <c r="F100">
+        <v>117257</v>
+      </c>
+      <c r="G100">
+        <v>321467</v>
+      </c>
+      <c r="H100">
+        <v>239077</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>100</v>
+      </c>
+      <c r="C101">
+        <v>3437</v>
+      </c>
+      <c r="D101">
+        <v>2009</v>
+      </c>
+      <c r="E101">
+        <v>1428</v>
+      </c>
+      <c r="F101">
+        <v>118260</v>
+      </c>
+      <c r="G101">
+        <v>201779</v>
+      </c>
+      <c r="H101">
+        <v>239077</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>101</v>
+      </c>
+      <c r="C102">
+        <v>2167</v>
+      </c>
+      <c r="D102">
+        <v>1261</v>
+      </c>
+      <c r="E102">
+        <v>906</v>
+      </c>
+      <c r="F102">
+        <v>119276</v>
+      </c>
+      <c r="G102">
+        <v>81598</v>
+      </c>
+      <c r="H102">
+        <v>239077</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>102</v>
+      </c>
+      <c r="C103">
+        <v>880</v>
+      </c>
+      <c r="D103">
+        <v>510</v>
+      </c>
+      <c r="E103">
+        <v>370</v>
+      </c>
+      <c r="F103">
+        <v>120305</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>239077</v>
       </c>
     </row>
   </sheetData>

--- a/file.xlsx
+++ b/file.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,10 +438,10 @@
         <v>1354</v>
       </c>
       <c r="F2">
-        <v>59166</v>
+        <v>67166</v>
       </c>
       <c r="G2">
-        <v>689479</v>
+        <v>681479</v>
       </c>
       <c r="H2">
         <v>150000</v>
@@ -455,19 +455,19 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>17670</v>
+        <v>17606</v>
       </c>
       <c r="D3">
-        <v>13684</v>
+        <v>13634</v>
       </c>
       <c r="E3">
-        <v>3986</v>
+        <v>3971</v>
       </c>
       <c r="F3">
-        <v>49864</v>
+        <v>57915</v>
       </c>
       <c r="G3">
-        <v>2135629</v>
+        <v>2119592</v>
       </c>
       <c r="H3">
         <v>150000</v>
@@ -481,19 +481,19 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>17267</v>
+        <v>17137</v>
       </c>
       <c r="D4">
-        <v>13348</v>
+        <v>13247</v>
       </c>
       <c r="E4">
-        <v>3919</v>
+        <v>3890</v>
       </c>
       <c r="F4">
-        <v>50186</v>
+        <v>58290</v>
       </c>
       <c r="G4">
-        <v>2081524</v>
+        <v>2057412</v>
       </c>
       <c r="H4">
         <v>150000</v>
@@ -507,19 +507,19 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>16861</v>
+        <v>16665</v>
       </c>
       <c r="D5">
-        <v>13010</v>
+        <v>12859</v>
       </c>
       <c r="E5">
-        <v>3851</v>
+        <v>3806</v>
       </c>
       <c r="F5">
-        <v>50512</v>
+        <v>58668</v>
       </c>
       <c r="G5">
-        <v>2027161</v>
+        <v>1994938</v>
       </c>
       <c r="H5">
         <v>150000</v>
@@ -533,19 +533,19 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>16451</v>
+        <v>16189</v>
       </c>
       <c r="D6">
-        <v>12670</v>
+        <v>12468</v>
       </c>
       <c r="E6">
-        <v>3781</v>
+        <v>3721</v>
       </c>
       <c r="F6">
-        <v>50840</v>
+        <v>59049</v>
       </c>
       <c r="G6">
-        <v>1972541</v>
+        <v>1932169</v>
       </c>
       <c r="H6">
         <v>150000</v>
@@ -559,19 +559,19 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>28233</v>
+        <v>27904</v>
       </c>
       <c r="D7">
-        <v>21703</v>
+        <v>21451</v>
       </c>
       <c r="E7">
-        <v>6529</v>
+        <v>6453</v>
       </c>
       <c r="F7">
-        <v>41414</v>
+        <v>49676</v>
       </c>
       <c r="G7">
-        <v>3424597</v>
+        <v>3376039</v>
       </c>
       <c r="H7">
         <v>150000</v>
@@ -585,19 +585,19 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>27895</v>
+        <v>27500</v>
       </c>
       <c r="D8">
-        <v>21404</v>
+        <v>21100</v>
       </c>
       <c r="E8">
-        <v>6492</v>
+        <v>6400</v>
       </c>
       <c r="F8">
-        <v>41684</v>
+        <v>50000</v>
       </c>
       <c r="G8">
-        <v>3376422</v>
+        <v>3319639</v>
       </c>
       <c r="H8">
         <v>150000</v>
@@ -611,19 +611,19 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>27555</v>
+        <v>27092</v>
       </c>
       <c r="D9">
-        <v>21103</v>
+        <v>20748</v>
       </c>
       <c r="E9">
-        <v>6453</v>
+        <v>6344</v>
       </c>
       <c r="F9">
-        <v>41956</v>
+        <v>50327</v>
       </c>
       <c r="G9">
-        <v>3328014</v>
+        <v>3262968</v>
       </c>
       <c r="H9">
         <v>150000</v>
@@ -637,19 +637,19 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>27212</v>
+        <v>26680</v>
       </c>
       <c r="D10">
-        <v>20800</v>
+        <v>20394</v>
       </c>
       <c r="E10">
-        <v>6412</v>
+        <v>6287</v>
       </c>
       <c r="F10">
-        <v>42230</v>
+        <v>50656</v>
       </c>
       <c r="G10">
-        <v>3279371</v>
+        <v>3206026</v>
       </c>
       <c r="H10">
         <v>150000</v>
@@ -663,19 +663,19 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>26866</v>
+        <v>26265</v>
       </c>
       <c r="D11">
-        <v>20496</v>
+        <v>20038</v>
       </c>
       <c r="E11">
-        <v>6370</v>
+        <v>6228</v>
       </c>
       <c r="F11">
-        <v>42507</v>
+        <v>50988</v>
       </c>
       <c r="G11">
-        <v>3230494</v>
+        <v>3148810</v>
       </c>
       <c r="H11">
         <v>150000</v>
@@ -689,19 +689,19 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>26517</v>
+        <v>25847</v>
       </c>
       <c r="D12">
-        <v>20191</v>
+        <v>19680</v>
       </c>
       <c r="E12">
-        <v>6327</v>
+        <v>6167</v>
       </c>
       <c r="F12">
-        <v>42786</v>
+        <v>51323</v>
       </c>
       <c r="G12">
-        <v>3181381</v>
+        <v>3091321</v>
       </c>
       <c r="H12">
         <v>150000</v>
@@ -715,19 +715,19 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>36035</v>
+        <v>35294</v>
       </c>
       <c r="D13">
-        <v>27384</v>
+        <v>26821</v>
       </c>
       <c r="E13">
-        <v>8651</v>
+        <v>8473</v>
       </c>
       <c r="F13">
-        <v>35172</v>
+        <v>43765</v>
       </c>
       <c r="G13">
-        <v>4337558</v>
+        <v>4239083</v>
       </c>
       <c r="H13">
         <v>150000</v>
@@ -741,19 +741,19 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>35745</v>
+        <v>34933</v>
       </c>
       <c r="D14">
-        <v>27110</v>
+        <v>26494</v>
       </c>
       <c r="E14">
-        <v>8635</v>
+        <v>8439</v>
       </c>
       <c r="F14">
-        <v>41164</v>
+        <v>49813</v>
       </c>
       <c r="G14">
-        <v>4287759</v>
+        <v>4180831</v>
       </c>
       <c r="H14">
         <v>159000</v>
@@ -767,19 +767,19 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>35405</v>
+        <v>34522</v>
       </c>
       <c r="D15">
-        <v>26798</v>
+        <v>26130</v>
       </c>
       <c r="E15">
-        <v>8607</v>
+        <v>8392</v>
       </c>
       <c r="F15">
-        <v>41436</v>
+        <v>50142</v>
       </c>
       <c r="G15">
-        <v>4237716</v>
+        <v>4122297</v>
       </c>
       <c r="H15">
         <v>159000</v>
@@ -793,19 +793,19 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>35062</v>
+        <v>34107</v>
       </c>
       <c r="D16">
-        <v>26486</v>
+        <v>25764</v>
       </c>
       <c r="E16">
-        <v>8576</v>
+        <v>8343</v>
       </c>
       <c r="F16">
-        <v>41710</v>
+        <v>50474</v>
       </c>
       <c r="G16">
-        <v>4187430</v>
+        <v>4063479</v>
       </c>
       <c r="H16">
         <v>159000</v>
@@ -819,19 +819,19 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>34716</v>
+        <v>33689</v>
       </c>
       <c r="D17">
-        <v>26171</v>
+        <v>25397</v>
       </c>
       <c r="E17">
-        <v>8545</v>
+        <v>8292</v>
       </c>
       <c r="F17">
-        <v>41987</v>
+        <v>50809</v>
       </c>
       <c r="G17">
-        <v>4136898</v>
+        <v>4004378</v>
       </c>
       <c r="H17">
         <v>159000</v>
@@ -845,19 +845,19 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>34368</v>
+        <v>33267</v>
       </c>
       <c r="D18">
-        <v>25856</v>
+        <v>25027</v>
       </c>
       <c r="E18">
-        <v>8512</v>
+        <v>8239</v>
       </c>
       <c r="F18">
-        <v>42266</v>
+        <v>51147</v>
       </c>
       <c r="G18">
-        <v>4086120</v>
+        <v>3944992</v>
       </c>
       <c r="H18">
         <v>159000</v>
@@ -871,19 +871,19 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>44005</v>
+        <v>42830</v>
       </c>
       <c r="D19">
-        <v>33038</v>
+        <v>32156</v>
       </c>
       <c r="E19">
-        <v>10967</v>
+        <v>10674</v>
       </c>
       <c r="F19">
-        <v>34556</v>
+        <v>43496</v>
       </c>
       <c r="G19">
-        <v>5240597</v>
+        <v>5090823</v>
       </c>
       <c r="H19">
         <v>159000</v>
@@ -897,19 +897,19 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>43717</v>
+        <v>42468</v>
       </c>
       <c r="D20">
-        <v>32754</v>
+        <v>31818</v>
       </c>
       <c r="E20">
-        <v>10963</v>
+        <v>10650</v>
       </c>
       <c r="F20">
-        <v>34786</v>
+        <v>43786</v>
       </c>
       <c r="G20">
-        <v>5194847</v>
+        <v>5036387</v>
       </c>
       <c r="H20">
         <v>159000</v>
@@ -923,19 +923,19 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>43426</v>
+        <v>42102</v>
       </c>
       <c r="D21">
-        <v>32468</v>
+        <v>31477</v>
       </c>
       <c r="E21">
-        <v>10958</v>
+        <v>10624</v>
       </c>
       <c r="F21">
-        <v>35019</v>
+        <v>44079</v>
       </c>
       <c r="G21">
-        <v>5148870</v>
+        <v>4981684</v>
       </c>
       <c r="H21">
         <v>159000</v>
@@ -949,19 +949,19 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>43133</v>
+        <v>41732</v>
       </c>
       <c r="D22">
-        <v>32180</v>
+        <v>31136</v>
       </c>
       <c r="E22">
-        <v>10952</v>
+        <v>10597</v>
       </c>
       <c r="F22">
-        <v>35254</v>
+        <v>44374</v>
       </c>
       <c r="G22">
-        <v>5102664</v>
+        <v>4926713</v>
       </c>
       <c r="H22">
         <v>159000</v>
@@ -975,19 +975,19 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>42837</v>
+        <v>41360</v>
       </c>
       <c r="D23">
-        <v>31892</v>
+        <v>30792</v>
       </c>
       <c r="E23">
-        <v>10945</v>
+        <v>10568</v>
       </c>
       <c r="F23">
-        <v>35490</v>
+        <v>44672</v>
       </c>
       <c r="G23">
-        <v>5056228</v>
+        <v>4871473</v>
       </c>
       <c r="H23">
         <v>159000</v>
@@ -1001,19 +1001,19 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>42538</v>
+        <v>40984</v>
       </c>
       <c r="D24">
-        <v>31601</v>
+        <v>30447</v>
       </c>
       <c r="E24">
-        <v>10937</v>
+        <v>10537</v>
       </c>
       <c r="F24">
-        <v>35729</v>
+        <v>44973</v>
       </c>
       <c r="G24">
-        <v>5009562</v>
+        <v>4815963</v>
       </c>
       <c r="H24">
         <v>159000</v>
@@ -1027,19 +1027,19 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>52355</v>
+        <v>50722</v>
       </c>
       <c r="D25">
-        <v>38810</v>
+        <v>37600</v>
       </c>
       <c r="E25">
-        <v>13545</v>
+        <v>13123</v>
       </c>
       <c r="F25">
-        <v>27876</v>
+        <v>37182</v>
       </c>
       <c r="G25">
-        <v>6168141</v>
+        <v>5965658</v>
       </c>
       <c r="H25">
         <v>159000</v>
@@ -1053,19 +1053,19 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>52119</v>
+        <v>50408</v>
       </c>
       <c r="D26">
-        <v>38551</v>
+        <v>37285</v>
       </c>
       <c r="E26">
-        <v>13568</v>
+        <v>13123</v>
       </c>
       <c r="F26">
-        <v>34170</v>
+        <v>43539</v>
       </c>
       <c r="G26">
-        <v>6120402</v>
+        <v>5908996</v>
       </c>
       <c r="H26">
         <v>168540</v>
@@ -1079,19 +1079,19 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>51830</v>
+        <v>50040</v>
       </c>
       <c r="D27">
-        <v>38253</v>
+        <v>36931</v>
       </c>
       <c r="E27">
-        <v>13577</v>
+        <v>13108</v>
       </c>
       <c r="F27">
-        <v>34402</v>
+        <v>43834</v>
       </c>
       <c r="G27">
-        <v>6072423</v>
+        <v>5852054</v>
       </c>
       <c r="H27">
         <v>168540</v>
@@ -1105,19 +1105,19 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>51538</v>
+        <v>49667</v>
       </c>
       <c r="D28">
-        <v>37953</v>
+        <v>36575</v>
       </c>
       <c r="E28">
-        <v>13585</v>
+        <v>13092</v>
       </c>
       <c r="F28">
-        <v>34635</v>
+        <v>44132</v>
       </c>
       <c r="G28">
-        <v>6024203</v>
+        <v>5794830</v>
       </c>
       <c r="H28">
         <v>168540</v>
@@ -1131,19 +1131,19 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>51243</v>
+        <v>49292</v>
       </c>
       <c r="D29">
-        <v>37651</v>
+        <v>36218</v>
       </c>
       <c r="E29">
-        <v>13592</v>
+        <v>13074</v>
       </c>
       <c r="F29">
-        <v>34871</v>
+        <v>44432</v>
       </c>
       <c r="G29">
-        <v>5975740</v>
+        <v>5737324</v>
       </c>
       <c r="H29">
         <v>168540</v>
@@ -1157,19 +1157,19 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>50946</v>
+        <v>48913</v>
       </c>
       <c r="D30">
-        <v>37348</v>
+        <v>35858</v>
       </c>
       <c r="E30">
-        <v>13598</v>
+        <v>13055</v>
       </c>
       <c r="F30">
-        <v>35109</v>
+        <v>44735</v>
       </c>
       <c r="G30">
-        <v>5927033</v>
+        <v>5679534</v>
       </c>
       <c r="H30">
         <v>168540</v>
@@ -1183,19 +1183,19 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>50646</v>
+        <v>48531</v>
       </c>
       <c r="D31">
-        <v>37044</v>
+        <v>35497</v>
       </c>
       <c r="E31">
-        <v>13602</v>
+        <v>13034</v>
       </c>
       <c r="F31">
-        <v>35349</v>
+        <v>45041</v>
       </c>
       <c r="G31">
-        <v>5878082</v>
+        <v>5621459</v>
       </c>
       <c r="H31">
         <v>168540</v>
@@ -1209,19 +1209,19 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>50343</v>
+        <v>48145</v>
       </c>
       <c r="D32">
-        <v>36738</v>
+        <v>35134</v>
       </c>
       <c r="E32">
-        <v>13605</v>
+        <v>13011</v>
       </c>
       <c r="F32">
-        <v>35591</v>
+        <v>45349</v>
       </c>
       <c r="G32">
-        <v>5828886</v>
+        <v>5563098</v>
       </c>
       <c r="H32">
         <v>168540</v>
@@ -1235,19 +1235,19 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>50038</v>
+        <v>47756</v>
       </c>
       <c r="D33">
-        <v>36431</v>
+        <v>34769</v>
       </c>
       <c r="E33">
-        <v>13607</v>
+        <v>12987</v>
       </c>
       <c r="F33">
-        <v>35836</v>
+        <v>45661</v>
       </c>
       <c r="G33">
-        <v>5779444</v>
+        <v>5504451</v>
       </c>
       <c r="H33">
         <v>168540</v>
@@ -1261,19 +1261,19 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>49729</v>
+        <v>47363</v>
       </c>
       <c r="D34">
-        <v>36122</v>
+        <v>34403</v>
       </c>
       <c r="E34">
-        <v>13608</v>
+        <v>12960</v>
       </c>
       <c r="F34">
-        <v>36082</v>
+        <v>45975</v>
       </c>
       <c r="G34">
-        <v>5729754</v>
+        <v>5445516</v>
       </c>
       <c r="H34">
         <v>168540</v>
@@ -1287,19 +1287,19 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>49418</v>
+        <v>46967</v>
       </c>
       <c r="D35">
-        <v>35811</v>
+        <v>34034</v>
       </c>
       <c r="E35">
-        <v>13607</v>
+        <v>12932</v>
       </c>
       <c r="F35">
-        <v>36331</v>
+        <v>46292</v>
       </c>
       <c r="G35">
-        <v>5679815</v>
+        <v>5386291</v>
       </c>
       <c r="H35">
         <v>168540</v>
@@ -1313,19 +1313,19 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <v>49104</v>
+        <v>46566</v>
       </c>
       <c r="D36">
-        <v>35499</v>
+        <v>33664</v>
       </c>
       <c r="E36">
-        <v>13605</v>
+        <v>12902</v>
       </c>
       <c r="F36">
-        <v>36582</v>
+        <v>46613</v>
       </c>
       <c r="G36">
-        <v>5629628</v>
+        <v>5326777</v>
       </c>
       <c r="H36">
         <v>168540</v>
@@ -1339,19 +1339,19 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>48787</v>
+        <v>46162</v>
       </c>
       <c r="D37">
-        <v>35185</v>
+        <v>33292</v>
       </c>
       <c r="E37">
-        <v>13602</v>
+        <v>12870</v>
       </c>
       <c r="F37">
-        <v>36836</v>
+        <v>46936</v>
       </c>
       <c r="G37">
-        <v>5579190</v>
+        <v>5266971</v>
       </c>
       <c r="H37">
         <v>168540</v>
@@ -1365,19 +1365,19 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>48467</v>
+        <v>45755</v>
       </c>
       <c r="D38">
-        <v>34870</v>
+        <v>32919</v>
       </c>
       <c r="E38">
-        <v>13597</v>
+        <v>12836</v>
       </c>
       <c r="F38">
-        <v>43564</v>
+        <v>53734</v>
       </c>
       <c r="G38">
-        <v>5522029</v>
+        <v>5200401</v>
       </c>
       <c r="H38">
         <v>178652</v>
@@ -1391,19 +1391,19 @@
         <v>38</v>
       </c>
       <c r="C39">
-        <v>48088</v>
+        <v>45287</v>
       </c>
       <c r="D39">
-        <v>34513</v>
+        <v>32503</v>
       </c>
       <c r="E39">
-        <v>13575</v>
+        <v>12784</v>
       </c>
       <c r="F39">
-        <v>43867</v>
+        <v>54108</v>
       </c>
       <c r="G39">
-        <v>5464587</v>
+        <v>5133509</v>
       </c>
       <c r="H39">
         <v>178652</v>
@@ -1417,19 +1417,19 @@
         <v>39</v>
       </c>
       <c r="C40">
-        <v>47705</v>
+        <v>44814</v>
       </c>
       <c r="D40">
-        <v>34154</v>
+        <v>32084</v>
       </c>
       <c r="E40">
-        <v>13551</v>
+        <v>12730</v>
       </c>
       <c r="F40">
-        <v>44174</v>
+        <v>54486</v>
       </c>
       <c r="G40">
-        <v>5406862</v>
+        <v>5066293</v>
       </c>
       <c r="H40">
         <v>178652</v>
@@ -1443,19 +1443,19 @@
         <v>40</v>
       </c>
       <c r="C41">
-        <v>47318</v>
+        <v>44338</v>
       </c>
       <c r="D41">
-        <v>33793</v>
+        <v>31664</v>
       </c>
       <c r="E41">
-        <v>13525</v>
+        <v>12673</v>
       </c>
       <c r="F41">
-        <v>44483</v>
+        <v>54867</v>
       </c>
       <c r="G41">
-        <v>5348854</v>
+        <v>4998752</v>
       </c>
       <c r="H41">
         <v>178652</v>
@@ -1469,19 +1469,19 @@
         <v>41</v>
       </c>
       <c r="C42">
-        <v>46928</v>
+        <v>43856</v>
       </c>
       <c r="D42">
-        <v>33430</v>
+        <v>31242</v>
       </c>
       <c r="E42">
-        <v>13497</v>
+        <v>12614</v>
       </c>
       <c r="F42">
-        <v>44795</v>
+        <v>55253</v>
       </c>
       <c r="G42">
-        <v>5290561</v>
+        <v>4930885</v>
       </c>
       <c r="H42">
         <v>178652</v>
@@ -1495,19 +1495,19 @@
         <v>42</v>
       </c>
       <c r="C43">
-        <v>46534</v>
+        <v>43370</v>
       </c>
       <c r="D43">
-        <v>33066</v>
+        <v>30818</v>
       </c>
       <c r="E43">
-        <v>13468</v>
+        <v>12552</v>
       </c>
       <c r="F43">
-        <v>45111</v>
+        <v>55641</v>
       </c>
       <c r="G43">
-        <v>5231983</v>
+        <v>4862692</v>
       </c>
       <c r="H43">
         <v>178652</v>
@@ -1521,19 +1521,19 @@
         <v>43</v>
       </c>
       <c r="C44">
-        <v>46136</v>
+        <v>42880</v>
       </c>
       <c r="D44">
-        <v>32700</v>
+        <v>30392</v>
       </c>
       <c r="E44">
-        <v>13436</v>
+        <v>12488</v>
       </c>
       <c r="F44">
-        <v>45429</v>
+        <v>56034</v>
       </c>
       <c r="G44">
-        <v>5173118</v>
+        <v>4794170</v>
       </c>
       <c r="H44">
         <v>178652</v>
@@ -1547,19 +1547,19 @@
         <v>44</v>
       </c>
       <c r="C45">
-        <v>45734</v>
+        <v>42384</v>
       </c>
       <c r="D45">
-        <v>32332</v>
+        <v>29964</v>
       </c>
       <c r="E45">
-        <v>13402</v>
+        <v>12421</v>
       </c>
       <c r="F45">
-        <v>45750</v>
+        <v>56430</v>
       </c>
       <c r="G45">
-        <v>5113965</v>
+        <v>4725319</v>
       </c>
       <c r="H45">
         <v>178652</v>
@@ -1573,19 +1573,19 @@
         <v>45</v>
       </c>
       <c r="C46">
-        <v>45329</v>
+        <v>41884</v>
       </c>
       <c r="D46">
-        <v>31962</v>
+        <v>29533</v>
       </c>
       <c r="E46">
-        <v>13367</v>
+        <v>12351</v>
       </c>
       <c r="F46">
-        <v>46074</v>
+        <v>56830</v>
       </c>
       <c r="G46">
-        <v>5054524</v>
+        <v>4656138</v>
       </c>
       <c r="H46">
         <v>178652</v>
@@ -1599,19 +1599,19 @@
         <v>46</v>
       </c>
       <c r="C47">
-        <v>44919</v>
+        <v>41379</v>
       </c>
       <c r="D47">
-        <v>31591</v>
+        <v>29101</v>
       </c>
       <c r="E47">
-        <v>13329</v>
+        <v>12278</v>
       </c>
       <c r="F47">
-        <v>46402</v>
+        <v>57234</v>
       </c>
       <c r="G47">
-        <v>4994794</v>
+        <v>4586626</v>
       </c>
       <c r="H47">
         <v>178652</v>
@@ -1625,19 +1625,19 @@
         <v>47</v>
       </c>
       <c r="C48">
-        <v>44506</v>
+        <v>40869</v>
       </c>
       <c r="D48">
-        <v>31217</v>
+        <v>28666</v>
       </c>
       <c r="E48">
-        <v>13288</v>
+        <v>12203</v>
       </c>
       <c r="F48">
-        <v>46733</v>
+        <v>57642</v>
       </c>
       <c r="G48">
-        <v>4934772</v>
+        <v>4516781</v>
       </c>
       <c r="H48">
         <v>178652</v>
@@ -1651,19 +1651,19 @@
         <v>48</v>
       </c>
       <c r="C49">
-        <v>44088</v>
+        <v>40354</v>
       </c>
       <c r="D49">
-        <v>30842</v>
+        <v>28230</v>
       </c>
       <c r="E49">
-        <v>13246</v>
+        <v>12124</v>
       </c>
       <c r="F49">
-        <v>47067</v>
+        <v>58054</v>
       </c>
       <c r="G49">
-        <v>4874459</v>
+        <v>4446603</v>
       </c>
       <c r="H49">
         <v>178652</v>
@@ -1677,19 +1677,19 @@
         <v>49</v>
       </c>
       <c r="C50">
-        <v>43667</v>
+        <v>39834</v>
       </c>
       <c r="D50">
-        <v>30465</v>
+        <v>27791</v>
       </c>
       <c r="E50">
-        <v>13201</v>
+        <v>12043</v>
       </c>
       <c r="F50">
-        <v>54264</v>
+        <v>65331</v>
       </c>
       <c r="G50">
-        <v>4806994</v>
+        <v>4369229</v>
       </c>
       <c r="H50">
         <v>189372</v>
@@ -1703,19 +1703,19 @@
         <v>50</v>
       </c>
       <c r="C51">
-        <v>43179</v>
+        <v>39247</v>
       </c>
       <c r="D51">
-        <v>30044</v>
+        <v>27308</v>
       </c>
       <c r="E51">
-        <v>13136</v>
+        <v>11939</v>
       </c>
       <c r="F51">
-        <v>54654</v>
+        <v>65800</v>
       </c>
       <c r="G51">
-        <v>4739204</v>
+        <v>4291490</v>
       </c>
       <c r="H51">
         <v>189372</v>
@@ -1729,19 +1729,19 @@
         <v>51</v>
       </c>
       <c r="C52">
-        <v>42687</v>
+        <v>38654</v>
       </c>
       <c r="D52">
-        <v>29620</v>
+        <v>26822</v>
       </c>
       <c r="E52">
-        <v>13067</v>
+        <v>11833</v>
       </c>
       <c r="F52">
-        <v>55048</v>
+        <v>66274</v>
       </c>
       <c r="G52">
-        <v>4671089</v>
+        <v>4213383</v>
       </c>
       <c r="H52">
         <v>189372</v>
@@ -1755,19 +1755,19 @@
         <v>52</v>
       </c>
       <c r="C53">
-        <v>42190</v>
+        <v>38056</v>
       </c>
       <c r="D53">
-        <v>29194</v>
+        <v>26334</v>
       </c>
       <c r="E53">
-        <v>12996</v>
+        <v>11722</v>
       </c>
       <c r="F53">
-        <v>55446</v>
+        <v>66753</v>
       </c>
       <c r="G53">
-        <v>4602647</v>
+        <v>4134908</v>
       </c>
       <c r="H53">
         <v>189372</v>
@@ -1781,19 +1781,19 @@
         <v>53</v>
       </c>
       <c r="C54">
-        <v>41688</v>
+        <v>37451</v>
       </c>
       <c r="D54">
-        <v>28767</v>
+        <v>25843</v>
       </c>
       <c r="E54">
-        <v>12921</v>
+        <v>11608</v>
       </c>
       <c r="F54">
-        <v>55848</v>
+        <v>67237</v>
       </c>
       <c r="G54">
-        <v>4533878</v>
+        <v>4056063</v>
       </c>
       <c r="H54">
         <v>189372</v>
@@ -1807,19 +1807,19 @@
         <v>54</v>
       </c>
       <c r="C55">
-        <v>41180</v>
+        <v>36840</v>
       </c>
       <c r="D55">
-        <v>28337</v>
+        <v>25350</v>
       </c>
       <c r="E55">
-        <v>12844</v>
+        <v>11490</v>
       </c>
       <c r="F55">
-        <v>56253</v>
+        <v>67725</v>
       </c>
       <c r="G55">
-        <v>4464781</v>
+        <v>3976847</v>
       </c>
       <c r="H55">
         <v>189372</v>
@@ -1833,19 +1833,19 @@
         <v>55</v>
       </c>
       <c r="C56">
-        <v>40668</v>
+        <v>36224</v>
       </c>
       <c r="D56">
-        <v>27905</v>
+        <v>24855</v>
       </c>
       <c r="E56">
-        <v>12763</v>
+        <v>11368</v>
       </c>
       <c r="F56">
-        <v>56663</v>
+        <v>68219</v>
       </c>
       <c r="G56">
-        <v>4395355</v>
+        <v>3897260</v>
       </c>
       <c r="H56">
         <v>189372</v>
@@ -1859,19 +1859,19 @@
         <v>56</v>
       </c>
       <c r="C57">
-        <v>40150</v>
+        <v>35600</v>
       </c>
       <c r="D57">
-        <v>27471</v>
+        <v>24358</v>
       </c>
       <c r="E57">
-        <v>12679</v>
+        <v>11243</v>
       </c>
       <c r="F57">
-        <v>57077</v>
+        <v>68717</v>
       </c>
       <c r="G57">
-        <v>4325598</v>
+        <v>3817300</v>
       </c>
       <c r="H57">
         <v>189372</v>
@@ -1885,19 +1885,19 @@
         <v>57</v>
       </c>
       <c r="C58">
-        <v>39627</v>
+        <v>34971</v>
       </c>
       <c r="D58">
-        <v>27035</v>
+        <v>23858</v>
       </c>
       <c r="E58">
-        <v>12593</v>
+        <v>11113</v>
       </c>
       <c r="F58">
-        <v>57496</v>
+        <v>69221</v>
       </c>
       <c r="G58">
-        <v>4255510</v>
+        <v>3736966</v>
       </c>
       <c r="H58">
         <v>189372</v>
@@ -1911,19 +1911,19 @@
         <v>58</v>
       </c>
       <c r="C59">
-        <v>39099</v>
+        <v>34335</v>
       </c>
       <c r="D59">
-        <v>26597</v>
+        <v>23356</v>
       </c>
       <c r="E59">
-        <v>12502</v>
+        <v>10979</v>
       </c>
       <c r="F59">
-        <v>57918</v>
+        <v>69730</v>
       </c>
       <c r="G59">
-        <v>4185089</v>
+        <v>3656257</v>
       </c>
       <c r="H59">
         <v>189372</v>
@@ -1937,19 +1937,19 @@
         <v>59</v>
       </c>
       <c r="C60">
-        <v>38566</v>
+        <v>33692</v>
       </c>
       <c r="D60">
-        <v>26157</v>
+        <v>22852</v>
       </c>
       <c r="E60">
-        <v>12409</v>
+        <v>10841</v>
       </c>
       <c r="F60">
-        <v>58345</v>
+        <v>70244</v>
       </c>
       <c r="G60">
-        <v>4114335</v>
+        <v>3575173</v>
       </c>
       <c r="H60">
         <v>189372</v>
@@ -1963,19 +1963,19 @@
         <v>60</v>
       </c>
       <c r="C61">
-        <v>38026</v>
+        <v>33043</v>
       </c>
       <c r="D61">
-        <v>25715</v>
+        <v>22345</v>
       </c>
       <c r="E61">
-        <v>12312</v>
+        <v>10698</v>
       </c>
       <c r="F61">
-        <v>58777</v>
+        <v>70763</v>
       </c>
       <c r="G61">
-        <v>4043246</v>
+        <v>3493711</v>
       </c>
       <c r="H61">
         <v>189372</v>
@@ -1989,19 +1989,19 @@
         <v>61</v>
       </c>
       <c r="C62">
-        <v>37481</v>
+        <v>32387</v>
       </c>
       <c r="D62">
-        <v>25270</v>
+        <v>21836</v>
       </c>
       <c r="E62">
-        <v>12211</v>
+        <v>10551</v>
       </c>
       <c r="F62">
-        <v>66485</v>
+        <v>78560</v>
       </c>
       <c r="G62">
-        <v>3964551</v>
+        <v>3404600</v>
       </c>
       <c r="H62">
         <v>200734</v>
@@ -2015,19 +2015,19 @@
         <v>62</v>
       </c>
       <c r="C63">
-        <v>36863</v>
+        <v>31657</v>
       </c>
       <c r="D63">
-        <v>24778</v>
+        <v>21279</v>
       </c>
       <c r="E63">
-        <v>12085</v>
+        <v>10378</v>
       </c>
       <c r="F63">
-        <v>66979</v>
+        <v>79144</v>
       </c>
       <c r="G63">
-        <v>3885487</v>
+        <v>3315078</v>
       </c>
       <c r="H63">
         <v>200734</v>
@@ -2041,19 +2041,19 @@
         <v>63</v>
       </c>
       <c r="C64">
-        <v>36239</v>
+        <v>30919</v>
       </c>
       <c r="D64">
-        <v>24284</v>
+        <v>20719</v>
       </c>
       <c r="E64">
-        <v>11954</v>
+        <v>10199</v>
       </c>
       <c r="F64">
-        <v>67479</v>
+        <v>79735</v>
       </c>
       <c r="G64">
-        <v>3806054</v>
+        <v>3225143</v>
       </c>
       <c r="H64">
         <v>200734</v>
@@ -2067,19 +2067,19 @@
         <v>64</v>
       </c>
       <c r="C65">
-        <v>35607</v>
+        <v>30173</v>
       </c>
       <c r="D65">
-        <v>23788</v>
+        <v>20157</v>
       </c>
       <c r="E65">
-        <v>11819</v>
+        <v>10015</v>
       </c>
       <c r="F65">
-        <v>67984</v>
+        <v>80332</v>
       </c>
       <c r="G65">
-        <v>3726250</v>
+        <v>3134796</v>
       </c>
       <c r="H65">
         <v>200734</v>
@@ -2093,19 +2093,19 @@
         <v>65</v>
       </c>
       <c r="C66">
-        <v>34969</v>
+        <v>29419</v>
       </c>
       <c r="D66">
-        <v>23289</v>
+        <v>19592</v>
       </c>
       <c r="E66">
-        <v>11680</v>
+        <v>9826</v>
       </c>
       <c r="F66">
-        <v>68494</v>
+        <v>80935</v>
       </c>
       <c r="G66">
-        <v>3646076</v>
+        <v>3044036</v>
       </c>
       <c r="H66">
         <v>200734</v>
@@ -2119,19 +2119,19 @@
         <v>66</v>
       </c>
       <c r="C67">
-        <v>34324</v>
+        <v>28657</v>
       </c>
       <c r="D67">
-        <v>22788</v>
+        <v>19025</v>
       </c>
       <c r="E67">
-        <v>11536</v>
+        <v>9632</v>
       </c>
       <c r="F67">
-        <v>69010</v>
+        <v>81544</v>
       </c>
       <c r="G67">
-        <v>3565529</v>
+        <v>2952860</v>
       </c>
       <c r="H67">
         <v>200734</v>
@@ -2145,19 +2145,19 @@
         <v>67</v>
       </c>
       <c r="C68">
-        <v>33673</v>
+        <v>27887</v>
       </c>
       <c r="D68">
-        <v>22285</v>
+        <v>18455</v>
       </c>
       <c r="E68">
-        <v>11388</v>
+        <v>9431</v>
       </c>
       <c r="F68">
-        <v>69532</v>
+        <v>82160</v>
       </c>
       <c r="G68">
-        <v>3484610</v>
+        <v>2861268</v>
       </c>
       <c r="H68">
         <v>200734</v>
@@ -2171,19 +2171,19 @@
         <v>68</v>
       </c>
       <c r="C69">
-        <v>33014</v>
+        <v>27108</v>
       </c>
       <c r="D69">
-        <v>21779</v>
+        <v>17883</v>
       </c>
       <c r="E69">
-        <v>11235</v>
+        <v>9225</v>
       </c>
       <c r="F69">
-        <v>70059</v>
+        <v>82783</v>
       </c>
       <c r="G69">
-        <v>3403316</v>
+        <v>2769260</v>
       </c>
       <c r="H69">
         <v>200734</v>
@@ -2197,19 +2197,19 @@
         <v>69</v>
       </c>
       <c r="C70">
-        <v>32348</v>
+        <v>26321</v>
       </c>
       <c r="D70">
-        <v>21271</v>
+        <v>17308</v>
       </c>
       <c r="E70">
-        <v>11077</v>
+        <v>9014</v>
       </c>
       <c r="F70">
-        <v>70591</v>
+        <v>83413</v>
       </c>
       <c r="G70">
-        <v>3321648</v>
+        <v>2676834</v>
       </c>
       <c r="H70">
         <v>200734</v>
@@ -2223,19 +2223,19 @@
         <v>70</v>
       </c>
       <c r="C71">
-        <v>31675</v>
+        <v>25526</v>
       </c>
       <c r="D71">
-        <v>20760</v>
+        <v>16730</v>
       </c>
       <c r="E71">
-        <v>10915</v>
+        <v>8796</v>
       </c>
       <c r="F71">
-        <v>71130</v>
+        <v>84049</v>
       </c>
       <c r="G71">
-        <v>3239603</v>
+        <v>2583989</v>
       </c>
       <c r="H71">
         <v>200734</v>
@@ -2249,19 +2249,19 @@
         <v>71</v>
       </c>
       <c r="C72">
-        <v>30994</v>
+        <v>24722</v>
       </c>
       <c r="D72">
-        <v>20248</v>
+        <v>16150</v>
       </c>
       <c r="E72">
-        <v>10747</v>
+        <v>8572</v>
       </c>
       <c r="F72">
-        <v>71674</v>
+        <v>84692</v>
       </c>
       <c r="G72">
-        <v>3157182</v>
+        <v>2490725</v>
       </c>
       <c r="H72">
         <v>200734</v>
@@ -2275,19 +2275,19 @@
         <v>72</v>
       </c>
       <c r="C73">
-        <v>30306</v>
+        <v>23909</v>
       </c>
       <c r="D73">
-        <v>19732</v>
+        <v>15567</v>
       </c>
       <c r="E73">
-        <v>10574</v>
+        <v>8342</v>
       </c>
       <c r="F73">
-        <v>72225</v>
+        <v>85343</v>
       </c>
       <c r="G73">
-        <v>3074384</v>
+        <v>2397041</v>
       </c>
       <c r="H73">
         <v>200734</v>
@@ -2301,19 +2301,19 @@
         <v>73</v>
       </c>
       <c r="C74">
-        <v>29611</v>
+        <v>23087</v>
       </c>
       <c r="D74">
-        <v>19215</v>
+        <v>14982</v>
       </c>
       <c r="E74">
-        <v>10396</v>
+        <v>8105</v>
       </c>
       <c r="F74">
-        <v>80489</v>
+        <v>93708</v>
       </c>
       <c r="G74">
-        <v>2983499</v>
+        <v>2295227</v>
       </c>
       <c r="H74">
         <v>212778</v>
@@ -2327,19 +2327,19 @@
         <v>74</v>
       </c>
       <c r="C75">
-        <v>28833</v>
+        <v>22181</v>
       </c>
       <c r="D75">
-        <v>18647</v>
+        <v>14345</v>
       </c>
       <c r="E75">
-        <v>10186</v>
+        <v>7836</v>
       </c>
       <c r="F75">
-        <v>81112</v>
+        <v>94433</v>
       </c>
       <c r="G75">
-        <v>2892201</v>
+        <v>2192958</v>
       </c>
       <c r="H75">
         <v>212778</v>
@@ -2353,19 +2353,19 @@
         <v>75</v>
       </c>
       <c r="C76">
-        <v>28046</v>
+        <v>21266</v>
       </c>
       <c r="D76">
-        <v>18076</v>
+        <v>13706</v>
       </c>
       <c r="E76">
-        <v>9970</v>
+        <v>7560</v>
       </c>
       <c r="F76">
-        <v>81741</v>
+        <v>95165</v>
       </c>
       <c r="G76">
-        <v>2800490</v>
+        <v>2090233</v>
       </c>
       <c r="H76">
         <v>212778</v>
@@ -2379,19 +2379,19 @@
         <v>76</v>
       </c>
       <c r="C77">
-        <v>27251</v>
+        <v>20340</v>
       </c>
       <c r="D77">
-        <v>17503</v>
+        <v>13064</v>
       </c>
       <c r="E77">
-        <v>9748</v>
+        <v>7276</v>
       </c>
       <c r="F77">
-        <v>82377</v>
+        <v>95906</v>
       </c>
       <c r="G77">
-        <v>2708365</v>
+        <v>1987051</v>
       </c>
       <c r="H77">
         <v>212778</v>
@@ -2405,19 +2405,19 @@
         <v>77</v>
       </c>
       <c r="C78">
-        <v>26447</v>
+        <v>19403</v>
       </c>
       <c r="D78">
-        <v>16927</v>
+        <v>12419</v>
       </c>
       <c r="E78">
-        <v>9519</v>
+        <v>6984</v>
       </c>
       <c r="F78">
-        <v>83021</v>
+        <v>96655</v>
       </c>
       <c r="G78">
-        <v>2615826</v>
+        <v>1883412</v>
       </c>
       <c r="H78">
         <v>212778</v>
@@ -2431,19 +2431,19 @@
         <v>78</v>
       </c>
       <c r="C79">
-        <v>25633</v>
+        <v>18456</v>
       </c>
       <c r="D79">
-        <v>16349</v>
+        <v>11771</v>
       </c>
       <c r="E79">
-        <v>9284</v>
+        <v>6685</v>
       </c>
       <c r="F79">
-        <v>83671</v>
+        <v>97413</v>
       </c>
       <c r="G79">
-        <v>2522870</v>
+        <v>1779314</v>
       </c>
       <c r="H79">
         <v>212778</v>
@@ -2457,19 +2457,19 @@
         <v>79</v>
       </c>
       <c r="C80">
-        <v>24810</v>
+        <v>17498</v>
       </c>
       <c r="D80">
-        <v>15768</v>
+        <v>11121</v>
       </c>
       <c r="E80">
-        <v>9042</v>
+        <v>6377</v>
       </c>
       <c r="F80">
-        <v>84330</v>
+        <v>98179</v>
       </c>
       <c r="G80">
-        <v>2429498</v>
+        <v>1674757</v>
       </c>
       <c r="H80">
         <v>212778</v>
@@ -2483,19 +2483,19 @@
         <v>80</v>
       </c>
       <c r="C81">
-        <v>23978</v>
+        <v>16529</v>
       </c>
       <c r="D81">
-        <v>15184</v>
+        <v>10467</v>
       </c>
       <c r="E81">
-        <v>8793</v>
+        <v>6062</v>
       </c>
       <c r="F81">
-        <v>84996</v>
+        <v>98955</v>
       </c>
       <c r="G81">
-        <v>2335709</v>
+        <v>1569741</v>
       </c>
       <c r="H81">
         <v>212778</v>
@@ -2509,19 +2509,19 @@
         <v>81</v>
       </c>
       <c r="C82">
-        <v>23136</v>
+        <v>15549</v>
       </c>
       <c r="D82">
-        <v>14598</v>
+        <v>9811</v>
       </c>
       <c r="E82">
-        <v>8538</v>
+        <v>5738</v>
       </c>
       <c r="F82">
-        <v>85669</v>
+        <v>99739</v>
       </c>
       <c r="G82">
-        <v>2241502</v>
+        <v>1464264</v>
       </c>
       <c r="H82">
         <v>212778</v>
@@ -2535,19 +2535,19 @@
         <v>82</v>
       </c>
       <c r="C83">
-        <v>22284</v>
+        <v>14557</v>
       </c>
       <c r="D83">
-        <v>14009</v>
+        <v>9152</v>
       </c>
       <c r="E83">
-        <v>8275</v>
+        <v>5406</v>
       </c>
       <c r="F83">
-        <v>86350</v>
+        <v>100532</v>
       </c>
       <c r="G83">
-        <v>2146877</v>
+        <v>1358327</v>
       </c>
       <c r="H83">
         <v>212778</v>
@@ -2561,19 +2561,19 @@
         <v>83</v>
       </c>
       <c r="C84">
-        <v>21423</v>
+        <v>13554</v>
       </c>
       <c r="D84">
-        <v>13418</v>
+        <v>8490</v>
       </c>
       <c r="E84">
-        <v>8005</v>
+        <v>5065</v>
       </c>
       <c r="F84">
-        <v>87040</v>
+        <v>101335</v>
       </c>
       <c r="G84">
-        <v>2051833</v>
+        <v>1251927</v>
       </c>
       <c r="H84">
         <v>212778</v>
@@ -2587,19 +2587,19 @@
         <v>84</v>
       </c>
       <c r="C85">
-        <v>20551</v>
+        <v>12539</v>
       </c>
       <c r="D85">
-        <v>12824</v>
+        <v>7825</v>
       </c>
       <c r="E85">
-        <v>7727</v>
+        <v>4715</v>
       </c>
       <c r="F85">
-        <v>87737</v>
+        <v>102147</v>
       </c>
       <c r="G85">
-        <v>1956368</v>
+        <v>1145066</v>
       </c>
       <c r="H85">
         <v>212778</v>
@@ -2613,19 +2613,19 @@
         <v>85</v>
       </c>
       <c r="C86">
-        <v>19669</v>
+        <v>11512</v>
       </c>
       <c r="D86">
-        <v>12227</v>
+        <v>7157</v>
       </c>
       <c r="E86">
-        <v>7441</v>
+        <v>4355</v>
       </c>
       <c r="F86">
-        <v>96614</v>
+        <v>111139</v>
       </c>
       <c r="G86">
-        <v>1852314</v>
+        <v>1029572</v>
       </c>
       <c r="H86">
         <v>225545</v>
@@ -2639,19 +2639,19 @@
         <v>86</v>
       </c>
       <c r="C87">
-        <v>18694</v>
+        <v>10391</v>
       </c>
       <c r="D87">
-        <v>11577</v>
+        <v>6435</v>
       </c>
       <c r="E87">
-        <v>7117</v>
+        <v>3956</v>
       </c>
       <c r="F87">
-        <v>97394</v>
+        <v>112036</v>
       </c>
       <c r="G87">
-        <v>1747803</v>
+        <v>913580</v>
       </c>
       <c r="H87">
         <v>225545</v>
@@ -2665,19 +2665,19 @@
         <v>87</v>
       </c>
       <c r="C88">
-        <v>17707</v>
+        <v>9255</v>
       </c>
       <c r="D88">
-        <v>10924</v>
+        <v>5710</v>
       </c>
       <c r="E88">
-        <v>6783</v>
+        <v>3546</v>
       </c>
       <c r="F88">
-        <v>98183</v>
+        <v>112944</v>
       </c>
       <c r="G88">
-        <v>1642837</v>
+        <v>797091</v>
       </c>
       <c r="H88">
         <v>225545</v>
@@ -2691,19 +2691,19 @@
         <v>88</v>
       </c>
       <c r="C89">
-        <v>16708</v>
+        <v>8107</v>
       </c>
       <c r="D89">
-        <v>10268</v>
+        <v>4982</v>
       </c>
       <c r="E89">
-        <v>6441</v>
+        <v>3125</v>
       </c>
       <c r="F89">
-        <v>98982</v>
+        <v>113863</v>
       </c>
       <c r="G89">
-        <v>1537415</v>
+        <v>680103</v>
       </c>
       <c r="H89">
         <v>225545</v>
@@ -2717,19 +2717,19 @@
         <v>89</v>
       </c>
       <c r="C90">
-        <v>15698</v>
+        <v>6944</v>
       </c>
       <c r="D90">
-        <v>9609</v>
+        <v>4251</v>
       </c>
       <c r="E90">
-        <v>6089</v>
+        <v>2694</v>
       </c>
       <c r="F90">
-        <v>99790</v>
+        <v>114793</v>
       </c>
       <c r="G90">
-        <v>1431535</v>
+        <v>562616</v>
       </c>
       <c r="H90">
         <v>225545</v>
@@ -2743,19 +2743,19 @@
         <v>90</v>
       </c>
       <c r="C91">
-        <v>14675</v>
+        <v>5767</v>
       </c>
       <c r="D91">
-        <v>8947</v>
+        <v>3516</v>
       </c>
       <c r="E91">
-        <v>5728</v>
+        <v>2251</v>
       </c>
       <c r="F91">
-        <v>100609</v>
+        <v>115735</v>
       </c>
       <c r="G91">
-        <v>1325199</v>
+        <v>444630</v>
       </c>
       <c r="H91">
         <v>225545</v>
@@ -2769,19 +2769,19 @@
         <v>91</v>
       </c>
       <c r="C92">
-        <v>13639</v>
+        <v>4576</v>
       </c>
       <c r="D92">
-        <v>8282</v>
+        <v>2779</v>
       </c>
       <c r="E92">
-        <v>5357</v>
+        <v>1797</v>
       </c>
       <c r="F92">
-        <v>101437</v>
+        <v>116687</v>
       </c>
       <c r="G92">
-        <v>1218405</v>
+        <v>326145</v>
       </c>
       <c r="H92">
         <v>225545</v>
@@ -2795,19 +2795,19 @@
         <v>92</v>
       </c>
       <c r="C93">
-        <v>12591</v>
+        <v>3370</v>
       </c>
       <c r="D93">
-        <v>7615</v>
+        <v>2038</v>
       </c>
       <c r="E93">
-        <v>4976</v>
+        <v>1332</v>
       </c>
       <c r="F93">
-        <v>102276</v>
+        <v>117652</v>
       </c>
       <c r="G93">
-        <v>1111153</v>
+        <v>207161</v>
       </c>
       <c r="H93">
         <v>225545</v>
@@ -2821,19 +2821,19 @@
         <v>93</v>
       </c>
       <c r="C94">
-        <v>11530</v>
+        <v>2150</v>
       </c>
       <c r="D94">
-        <v>6945</v>
+        <v>1295</v>
       </c>
       <c r="E94">
-        <v>4585</v>
+        <v>855</v>
       </c>
       <c r="F94">
-        <v>103125</v>
+        <v>118629</v>
       </c>
       <c r="G94">
-        <v>1003444</v>
+        <v>87678</v>
       </c>
       <c r="H94">
         <v>225545</v>
@@ -2847,230 +2847,22 @@
         <v>94</v>
       </c>
       <c r="C95">
-        <v>10455</v>
+        <v>914</v>
       </c>
       <c r="D95">
-        <v>6272</v>
+        <v>548</v>
       </c>
       <c r="E95">
-        <v>4184</v>
+        <v>366</v>
       </c>
       <c r="F95">
-        <v>103984</v>
+        <v>119618</v>
       </c>
       <c r="G95">
-        <v>895276</v>
+        <v>0</v>
       </c>
       <c r="H95">
         <v>225545</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="A96" s="1">
-        <v>94</v>
-      </c>
-      <c r="B96">
-        <v>95</v>
-      </c>
-      <c r="C96">
-        <v>9367</v>
-      </c>
-      <c r="D96">
-        <v>5595</v>
-      </c>
-      <c r="E96">
-        <v>3772</v>
-      </c>
-      <c r="F96">
-        <v>104855</v>
-      </c>
-      <c r="G96">
-        <v>786649</v>
-      </c>
-      <c r="H96">
-        <v>225545</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
-      <c r="B97">
-        <v>96</v>
-      </c>
-      <c r="C97">
-        <v>8266</v>
-      </c>
-      <c r="D97">
-        <v>4917</v>
-      </c>
-      <c r="E97">
-        <v>3349</v>
-      </c>
-      <c r="F97">
-        <v>105736</v>
-      </c>
-      <c r="G97">
-        <v>677564</v>
-      </c>
-      <c r="H97">
-        <v>225545</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98" s="1">
-        <v>96</v>
-      </c>
-      <c r="B98">
-        <v>97</v>
-      </c>
-      <c r="C98">
-        <v>7150</v>
-      </c>
-      <c r="D98">
-        <v>4235</v>
-      </c>
-      <c r="E98">
-        <v>2915</v>
-      </c>
-      <c r="F98">
-        <v>115290</v>
-      </c>
-      <c r="G98">
-        <v>559359</v>
-      </c>
-      <c r="H98">
-        <v>239077</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" s="1">
-        <v>97</v>
-      </c>
-      <c r="B99">
-        <v>98</v>
-      </c>
-      <c r="C99">
-        <v>5928</v>
-      </c>
-      <c r="D99">
-        <v>3496</v>
-      </c>
-      <c r="E99">
-        <v>2432</v>
-      </c>
-      <c r="F99">
-        <v>116267</v>
-      </c>
-      <c r="G99">
-        <v>440660</v>
-      </c>
-      <c r="H99">
-        <v>239077</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100" s="1">
-        <v>98</v>
-      </c>
-      <c r="B100">
-        <v>99</v>
-      </c>
-      <c r="C100">
-        <v>4690</v>
-      </c>
-      <c r="D100">
-        <v>2754</v>
-      </c>
-      <c r="E100">
-        <v>1936</v>
-      </c>
-      <c r="F100">
-        <v>117257</v>
-      </c>
-      <c r="G100">
-        <v>321467</v>
-      </c>
-      <c r="H100">
-        <v>239077</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" s="1">
-        <v>99</v>
-      </c>
-      <c r="B101">
-        <v>100</v>
-      </c>
-      <c r="C101">
-        <v>3437</v>
-      </c>
-      <c r="D101">
-        <v>2009</v>
-      </c>
-      <c r="E101">
-        <v>1428</v>
-      </c>
-      <c r="F101">
-        <v>118260</v>
-      </c>
-      <c r="G101">
-        <v>201779</v>
-      </c>
-      <c r="H101">
-        <v>239077</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" s="1">
-        <v>100</v>
-      </c>
-      <c r="B102">
-        <v>101</v>
-      </c>
-      <c r="C102">
-        <v>2167</v>
-      </c>
-      <c r="D102">
-        <v>1261</v>
-      </c>
-      <c r="E102">
-        <v>906</v>
-      </c>
-      <c r="F102">
-        <v>119276</v>
-      </c>
-      <c r="G102">
-        <v>81598</v>
-      </c>
-      <c r="H102">
-        <v>239077</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103" s="1">
-        <v>101</v>
-      </c>
-      <c r="B103">
-        <v>102</v>
-      </c>
-      <c r="C103">
-        <v>880</v>
-      </c>
-      <c r="D103">
-        <v>510</v>
-      </c>
-      <c r="E103">
-        <v>370</v>
-      </c>
-      <c r="F103">
-        <v>120305</v>
-      </c>
-      <c r="G103">
-        <v>0</v>
-      </c>
-      <c r="H103">
-        <v>239077</v>
       </c>
     </row>
   </sheetData>
